--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004F5DCC-EF88-417E-8422-366F0153E805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558B8174-BEEC-4103-9AA3-A30D11E729EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1511,7 +1511,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="74">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>3</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558B8174-BEEC-4103-9AA3-A30D11E729EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296566D-B7F3-4AC5-B30A-2B7792732BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="74">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>3</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296566D-B7F3-4AC5-B30A-2B7792732BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27200785-229C-47F2-8C8C-C7CCA5061015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="74">
-        <v>45832</v>
+        <v>45853</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>3</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27200785-229C-47F2-8C8C-C7CCA5061015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E435BDD-040F-413D-9A4A-8135D2016857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="74">
-        <v>45853</v>
+        <v>45867</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>3</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E435BDD-040F-413D-9A4A-8135D2016857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C68B00-386B-4235-B8BE-D38032F62AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1511,7 +1511,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="74">
-        <v>45867</v>
+        <v>45881</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>3</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C68B00-386B-4235-B8BE-D38032F62AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D7200C-D4DB-493D-A56A-3E318134BACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1511,7 +1511,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="74">
-        <v>45881</v>
+        <v>45888</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>3</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D7200C-D4DB-493D-A56A-3E318134BACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38309213-8A7A-443F-ACE8-9C9340A073D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="74">
-        <v>45888</v>
+        <v>45895</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>3</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38309213-8A7A-443F-ACE8-9C9340A073D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCCC523-7B36-46CA-99AC-8B7714762FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="74">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>3</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCCC523-7B36-46CA-99AC-8B7714762FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8545D80-873A-4390-8E7F-1BBFEBBA4620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="74">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>3</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8545D80-873A-4390-8E7F-1BBFEBBA4620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9067E3-6B87-461B-8B20-92E051F1F03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="машины" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$102</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -234,9 +234,6 @@
     <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
   </si>
   <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 0.3кг</t>
-  </si>
-  <si>
     <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 1*3</t>
   </si>
   <si>
@@ -361,6 +358,21 @@
   </si>
   <si>
     <t>ВСЕГО:</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ С БЕК. п/о мгс 0.3кг_60с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ</t>
+  </si>
+  <si>
+    <t>БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ</t>
   </si>
 </sst>
 </file>
@@ -539,7 +551,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +807,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1006,6 +1024,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1507,11 +1545,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R1620"/>
+  <dimension ref="A1:R1624"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="9" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1825,7 +1863,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="str">
-        <f t="shared" ref="A16:A28" si="0">RIGHT(D16,4)</f>
+        <f t="shared" ref="A16:A29" si="0">RIGHT(D16,4)</f>
         <v>6334</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -2088,16 +2126,16 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="62" t="str">
         <f t="shared" si="0"/>
-        <v>6877</v>
+        <v>6220</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="63">
-        <v>1001015676877</v>
+        <v>1001012426220</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="69">
@@ -2108,19 +2146,19 @@
       <c r="H27" s="15"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="62" t="str">
         <f t="shared" si="0"/>
-        <v>6878</v>
+        <v>6877</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="63">
-        <v>1001015686878</v>
+        <v>1001015676877</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="69">
@@ -2131,59 +2169,59 @@
       <c r="H28" s="15"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>6878</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="63">
+        <v>1001015686878</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="69">
+        <f>E29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="str">
-        <f t="shared" ref="A30:A40" si="1">RIGHT(D30,4)</f>
+      <c r="C30" s="18"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="62" t="str">
+        <f t="shared" ref="A31:A41" si="1">RIGHT(D31,4)</f>
         <v>6765</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="63">
-        <v>1001023696765</v>
-      </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="19">
-        <f>E30*0.36</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>6768</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="C31" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="63">
-        <v>1001025176768</v>
+        <v>1001023696765</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="19">
-        <f>E31*0.41</f>
+        <f>E31*0.36</f>
         <v>0</v>
       </c>
       <c r="G31" s="14"/>
@@ -2193,16 +2231,16 @@
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>6770</v>
+        <v>6768</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="63">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="19">
@@ -2216,20 +2254,20 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>6602</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>46</v>
+        <v>6770</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C33" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="63">
-        <v>1001021966602</v>
+        <v>1001025486770</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="19">
-        <f>E33*0.35</f>
+        <f>E33*0.41</f>
         <v>0</v>
       </c>
       <c r="G33" s="14"/>
@@ -2239,20 +2277,20 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>6713</v>
+        <v>6602</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="63">
-        <v>1001022246713</v>
+        <v>1001021966602</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="19">
-        <f>E34*0.41</f>
+        <f>E34*0.35</f>
         <v>0</v>
       </c>
       <c r="G34" s="14"/>
@@ -2262,43 +2300,43 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>6240</v>
+        <v>6713</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="63">
-        <v>1001022246240</v>
+        <v>1001022246713</v>
       </c>
       <c r="E35" s="54"/>
-      <c r="F35" s="14">
-        <f>E35*0.45</f>
+      <c r="F35" s="19">
+        <f>E35*0.41</f>
         <v>0</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="15"/>
+      <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>7151</v>
-      </c>
-      <c r="B36" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="73" t="s">
+        <v>6240</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="72">
-        <v>1001020837151</v>
+      <c r="D36" s="63">
+        <v>1001022246240</v>
       </c>
       <c r="E36" s="54"/>
       <c r="F36" s="14">
-        <f>E36*0.41</f>
+        <f>E36*0.45</f>
         <v>0</v>
       </c>
       <c r="G36" s="14"/>
@@ -2308,20 +2346,20 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>6854</v>
-      </c>
-      <c r="B37" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="60" t="s">
+        <v>7151</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="68">
-        <v>1001022656854</v>
+      <c r="D37" s="72">
+        <v>1001020837151</v>
       </c>
       <c r="E37" s="54"/>
       <c r="F37" s="14">
-        <f>E37*0.6</f>
+        <f>E37*0.41</f>
         <v>0</v>
       </c>
       <c r="G37" s="14"/>
@@ -2331,43 +2369,43 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>7075</v>
-      </c>
-      <c r="B38" s="71" t="s">
-        <v>51</v>
+        <v>6854</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="72">
-        <v>1001022657075</v>
+        <v>23</v>
+      </c>
+      <c r="D38" s="68">
+        <v>1001022656854</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="14">
-        <f>E38</f>
+        <f>E38*0.6</f>
         <v>0</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="16"/>
+      <c r="H38" s="15"/>
       <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>5819</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>52</v>
+        <v>7075</v>
+      </c>
+      <c r="B39" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="68">
-        <v>1001022725819</v>
+        <v>25</v>
+      </c>
+      <c r="D39" s="72">
+        <v>1001022657075</v>
       </c>
       <c r="E39" s="54"/>
       <c r="F39" s="14">
-        <f>E39*0.4</f>
+        <f>E39</f>
         <v>0</v>
       </c>
       <c r="G39" s="14"/>
@@ -2377,16 +2415,16 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>7077</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>53</v>
+        <v>5819</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>52</v>
       </c>
       <c r="C40" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="72">
-        <v>1001025507077</v>
+      <c r="D40" s="68">
+        <v>1001022725819</v>
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="14">
@@ -2398,21 +2436,22 @@
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="64">
-        <v>6870</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>54</v>
+      <c r="A41" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>7077</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>53</v>
       </c>
       <c r="C41" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="68">
-        <v>1001022466726</v>
+      <c r="D41" s="72">
+        <v>1001025507077</v>
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="14">
-        <f>E41*0.41</f>
+        <f>E41*0.4</f>
         <v>0</v>
       </c>
       <c r="G41" s="14"/>
@@ -2421,20 +2460,20 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="64">
-        <v>6759</v>
+        <v>6870</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="68">
-        <v>1001020836759</v>
+        <v>1001022466726</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="14">
-        <f>E42*0.4</f>
+        <f>E42*0.41</f>
         <v>0</v>
       </c>
       <c r="G42" s="14"/>
@@ -2442,22 +2481,21 @@
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="str">
-        <f>RIGHT(D43,4)</f>
-        <v>7064</v>
-      </c>
-      <c r="B43" s="71" t="s">
-        <v>56</v>
+      <c r="A43" s="64">
+        <v>6759</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>55</v>
       </c>
       <c r="C43" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="72">
-        <v>1001022377064</v>
+      <c r="D43" s="68">
+        <v>1001020836759</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="14">
-        <f>E43*0.35</f>
+        <f>E43*0.4</f>
         <v>0</v>
       </c>
       <c r="G43" s="14"/>
@@ -2467,20 +2505,20 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="62" t="str">
         <f>RIGHT(D44,4)</f>
-        <v>7067</v>
+        <v>7064</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="72">
-        <v>1001022377067</v>
+        <v>1001022377064</v>
       </c>
       <c r="E44" s="54"/>
       <c r="F44" s="14">
-        <f>E44*0.41</f>
+        <f>E44*0.35</f>
         <v>0</v>
       </c>
       <c r="G44" s="14"/>
@@ -2490,20 +2528,20 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="62" t="str">
         <f>RIGHT(D45,4)</f>
-        <v>7070</v>
+        <v>7067</v>
       </c>
       <c r="B45" s="71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D45" s="72">
-        <v>1001022377070</v>
+        <v>1001022377067</v>
       </c>
       <c r="E45" s="54"/>
       <c r="F45" s="14">
-        <f>E45</f>
+        <f>E45*0.41</f>
         <v>0</v>
       </c>
       <c r="G45" s="14"/>
@@ -2511,44 +2549,44 @@
       <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="70">
-        <v>7037</v>
-      </c>
-      <c r="B46" s="65" t="s">
-        <v>59</v>
+      <c r="A46" s="62" t="str">
+        <f>RIGHT(D46,4)</f>
+        <v>7070</v>
+      </c>
+      <c r="B46" s="71" t="s">
+        <v>58</v>
       </c>
       <c r="C46" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="68">
-        <v>1001023857037</v>
+      <c r="D46" s="72">
+        <v>1001022377070</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="14">
         <f>E46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="62" t="str">
-        <f>RIGHT(D47,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B47" s="62" t="s">
-        <v>60</v>
+      <c r="A47" s="70">
+        <v>7037</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>59</v>
       </c>
       <c r="C47" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="63">
-        <v>1001022726303</v>
+      <c r="D47" s="68">
+        <v>1001023857037</v>
       </c>
       <c r="E47" s="54"/>
       <c r="F47" s="14">
-        <f>E47*1</f>
+        <f>E47</f>
         <v>0</v>
       </c>
       <c r="G47" s="26"/>
@@ -2558,16 +2596,16 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="62" t="str">
         <f>RIGHT(D48,4)</f>
-        <v>7244</v>
-      </c>
-      <c r="B48" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="73" t="s">
+        <v>6303</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="72">
-        <v>1001022557244</v>
+      <c r="D48" s="63">
+        <v>1001022726303</v>
       </c>
       <c r="E48" s="54"/>
       <c r="F48" s="14">
@@ -2581,16 +2619,16 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="62" t="str">
         <f>RIGHT(D49,4)</f>
-        <v>6254</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="60" t="s">
+        <v>7244</v>
+      </c>
+      <c r="B49" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="63">
-        <v>1001022556254</v>
+      <c r="D49" s="72">
+        <v>1001022557244</v>
       </c>
       <c r="E49" s="54"/>
       <c r="F49" s="14">
@@ -2601,82 +2639,82 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="62" t="str">
         <f>RIGHT(D50,4)</f>
-        <v>6837</v>
+        <v>6254</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D50" s="63">
-        <v>1001022556837</v>
+        <v>1001022556254</v>
       </c>
       <c r="E50" s="54"/>
       <c r="F50" s="14">
-        <f>E50*0.4</f>
+        <f>E50*1</f>
         <v>0</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="62" t="str">
+        <f>RIGHT(D51,4)</f>
+        <v>6837</v>
+      </c>
+      <c r="B51" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="63">
+        <v>1001022556837</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="14">
+        <f>E51*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="26"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+      <c r="B52" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62" t="str">
-        <f t="shared" ref="A52:A57" si="2">RIGHT(D52,4)</f>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="62" t="str">
+        <f t="shared" ref="A53:A58" si="2">RIGHT(D53,4)</f>
         <v>6549</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B53" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C53" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="63">
+      <c r="D53" s="63">
         <v>1001032736549</v>
-      </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="14">
-        <f>E52</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>6609</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="63">
-        <v>1001033856609</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="14">
-        <f>E53*0.4</f>
+        <f>E53</f>
         <v>0</v>
       </c>
       <c r="G53" s="14"/>
@@ -2686,20 +2724,20 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="62" t="str">
         <f t="shared" si="2"/>
-        <v>7059</v>
+        <v>6609</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D54" s="63">
-        <v>1001035277059</v>
+        <v>1001033856609</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="14">
-        <f>E54*0.3</f>
+        <f>E54*0.4</f>
         <v>0</v>
       </c>
       <c r="G54" s="14"/>
@@ -2709,20 +2747,20 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="62" t="str">
         <f t="shared" si="2"/>
-        <v>7058</v>
-      </c>
-      <c r="B55" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="72">
-        <v>1001035277058</v>
+        <v>7059</v>
+      </c>
+      <c r="B55" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="63">
+        <v>1001035277059</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="14">
-        <f>E55</f>
+        <f>E55*0.3</f>
         <v>0</v>
       </c>
       <c r="G55" s="14"/>
@@ -2732,16 +2770,16 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="62" t="str">
         <f t="shared" si="2"/>
-        <v>6548</v>
-      </c>
-      <c r="B56" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="63">
-        <v>1001031076548</v>
+        <v>7058</v>
+      </c>
+      <c r="B56" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="72">
+        <v>1001035277058</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="14">
@@ -2752,78 +2790,78 @@
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="62" t="str">
         <f t="shared" si="2"/>
-        <v>5698</v>
+        <v>6548</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="60" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="63">
-        <v>1001034065698</v>
+        <v>1001031076548</v>
       </c>
       <c r="E57" s="54"/>
       <c r="F57" s="14">
         <f>E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="26"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-    </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="62" t="str">
-        <f>RIGHT(D59,4)</f>
-        <v>7174</v>
-      </c>
-      <c r="B59" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="72">
-        <v>1001302277174</v>
-      </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="14">
-        <f>E59*0.28</f>
+      <c r="G57" s="14"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>5698</v>
+      </c>
+      <c r="B58" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="63">
+        <v>1001034065698</v>
+      </c>
+      <c r="E58" s="54"/>
+      <c r="F58" s="14">
+        <f>E58</f>
         <v>0</v>
       </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G58" s="26"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="35"/>
+      <c r="B59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A60" s="62" t="str">
         <f>RIGHT(D60,4)</f>
-        <v>7241</v>
+        <v>7174</v>
       </c>
       <c r="B60" s="71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="72">
-        <v>1001303107241</v>
+        <v>1001302277174</v>
       </c>
       <c r="E60" s="54"/>
       <c r="F60" s="14">
@@ -2834,124 +2872,124 @@
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="62" t="str">
         <f>RIGHT(D61,4)</f>
-        <v>7176</v>
-      </c>
-      <c r="B61" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="73" t="s">
+        <v>7332</v>
+      </c>
+      <c r="B61" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="72">
-        <v>1001302347176</v>
+      <c r="D61" s="86">
+        <v>7332</v>
       </c>
       <c r="E61" s="54"/>
       <c r="F61" s="14">
-        <f>E61*0.35</f>
+        <f>E61*0.28</f>
         <v>0</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-    </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="62" t="str">
+        <f>RIGHT(D62,4)</f>
+        <v>7241</v>
+      </c>
+      <c r="B62" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="72">
+        <v>1001303107241</v>
+      </c>
+      <c r="E62" s="54"/>
+      <c r="F62" s="14">
+        <f>E62*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="62" t="str">
-        <f t="shared" ref="A63:A75" si="3">RIGHT(D63,4)</f>
-        <v>7158</v>
+        <f>RIGHT(D63,4)</f>
+        <v>7176</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C63" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="72">
-        <v>1001304237158</v>
+        <v>1001302347176</v>
       </c>
       <c r="E63" s="54"/>
       <c r="F63" s="14">
         <f>E63*0.35</f>
         <v>0</v>
       </c>
-      <c r="G63" s="19"/>
+      <c r="G63" s="14"/>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>7159</v>
-      </c>
-      <c r="B64" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="72">
-        <v>1001304237159</v>
-      </c>
-      <c r="E64" s="54"/>
-      <c r="F64" s="14">
-        <f>E64*1</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="35"/>
+      <c r="B64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A65" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>7230</v>
+        <f t="shared" ref="A65:A79" si="3">RIGHT(D65,4)</f>
+        <v>7158</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C65" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="72">
-        <v>1001304507230</v>
+        <v>1001304237158</v>
       </c>
       <c r="E65" s="54"/>
       <c r="F65" s="14">
-        <f>E65*0.28</f>
+        <f>E65*0.35</f>
         <v>0</v>
       </c>
       <c r="G65" s="19"/>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>6790</v>
-      </c>
-      <c r="B66" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="60" t="s">
+        <v>7159</v>
+      </c>
+      <c r="B66" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="68">
-        <v>1001300366790</v>
+      <c r="D66" s="72">
+        <v>1001304237159</v>
       </c>
       <c r="E66" s="54"/>
       <c r="F66" s="14">
@@ -2962,377 +3000,378 @@
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>6566</v>
-      </c>
-      <c r="B67" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="60" t="s">
+        <v>7230</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="68">
-        <v>1001305306566</v>
+      <c r="D67" s="72">
+        <v>1001304507230</v>
       </c>
       <c r="E67" s="54"/>
       <c r="F67" s="14">
-        <f>E67*0.31</f>
+        <f>E67*0.28</f>
         <v>0</v>
       </c>
       <c r="G67" s="19"/>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>7238</v>
-      </c>
-      <c r="B68" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="72">
-        <v>1001305197238</v>
+        <v>6790</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="68">
+        <v>1001300366790</v>
       </c>
       <c r="E68" s="54"/>
       <c r="F68" s="14">
-        <f>E68*0.31</f>
+        <f>E68*1</f>
         <v>0</v>
       </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="15"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="16"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>6565</v>
+        <v>6807</v>
       </c>
       <c r="B69" s="65" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C69" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="68">
-        <v>1001305316565</v>
+        <v>1001300366807</v>
       </c>
       <c r="E69" s="54"/>
       <c r="F69" s="14">
-        <f>E69*0.31</f>
+        <f>E69*0.33</f>
         <v>0</v>
       </c>
-      <c r="G69" s="14"/>
+      <c r="G69" s="19"/>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>7162</v>
-      </c>
-      <c r="B70" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="73" t="s">
+        <v>6566</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="72">
-        <v>1001303987162</v>
+      <c r="D70" s="68">
+        <v>1001305306566</v>
       </c>
       <c r="E70" s="54"/>
       <c r="F70" s="14">
-        <f>E70*0.35</f>
+        <f>E70*0.31</f>
         <v>0</v>
       </c>
-      <c r="G70" s="14"/>
-      <c r="H70" s="15"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="16"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>7165</v>
+        <v>7238</v>
       </c>
       <c r="B71" s="71" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C71" s="73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D71" s="72">
-        <v>1001303987165</v>
+        <v>1001305197238</v>
       </c>
       <c r="E71" s="54"/>
       <c r="F71" s="14">
-        <f>E71*1</f>
+        <f>E71*0.31</f>
         <v>0</v>
       </c>
       <c r="G71" s="14"/>
-      <c r="H71" s="22"/>
+      <c r="H71" s="15"/>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>6698</v>
-      </c>
-      <c r="B72" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="73" t="s">
+        <v>6565</v>
+      </c>
+      <c r="B72" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="72">
-        <v>1001301876698</v>
+      <c r="D72" s="68">
+        <v>1001305316565</v>
       </c>
       <c r="E72" s="54"/>
       <c r="F72" s="14">
-        <f>E72*0.35</f>
+        <f>E72*0.31</f>
         <v>0</v>
       </c>
       <c r="G72" s="14"/>
-      <c r="H72" s="15"/>
+      <c r="H72" s="16"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>5607</v>
+        <v>7162</v>
       </c>
       <c r="B73" s="71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C73" s="73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D73" s="72">
-        <v>1001051875607</v>
+        <v>1001303987162</v>
       </c>
       <c r="E73" s="54"/>
       <c r="F73" s="14">
-        <f>E73*1</f>
+        <f>E73*0.35</f>
         <v>0</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>6787</v>
-      </c>
-      <c r="B74" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="73" t="s">
+        <v>7333</v>
+      </c>
+      <c r="B74" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="72">
-        <v>1001300456787</v>
+      <c r="D74" s="86">
+        <v>7333</v>
       </c>
       <c r="E74" s="54"/>
-      <c r="F74" s="14">
-        <f>E74*0.33</f>
+      <c r="F74" s="81">
+        <f>E74*0.28</f>
         <v>0</v>
       </c>
-      <c r="G74" s="26"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="24"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="81"/>
+      <c r="H74" s="82"/>
+      <c r="I74" s="83"/>
+      <c r="J74" s="84"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>6946</v>
+        <v>7165</v>
       </c>
       <c r="B75" s="71" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C75" s="73" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="72">
-        <v>1001300456946</v>
+        <v>1001303987165</v>
       </c>
       <c r="E75" s="54"/>
       <c r="F75" s="14">
-        <f>E75</f>
+        <f>E75*1</f>
         <v>0</v>
       </c>
-      <c r="G75" s="26"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="24"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G75" s="14"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="16"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>6698</v>
+      </c>
+      <c r="B76" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="72">
+        <v>1001301876698</v>
+      </c>
+      <c r="E76" s="54"/>
+      <c r="F76" s="14">
+        <f>E76*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="62" t="str">
-        <f t="shared" ref="A77:A86" si="4">RIGHT(D77,4)</f>
-        <v>5738</v>
-      </c>
-      <c r="B77" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="63">
-        <v>1001061975738</v>
+        <f t="shared" si="3"/>
+        <v>5607</v>
+      </c>
+      <c r="B77" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="72">
+        <v>1001051875607</v>
       </c>
       <c r="E77" s="54"/>
       <c r="F77" s="14">
-        <f>E77*0.25</f>
+        <f>E77*1</f>
         <v>0</v>
       </c>
       <c r="G77" s="14"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H77" s="15"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>5708</v>
-      </c>
-      <c r="B78" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="63">
-        <v>1001063145708</v>
+        <f t="shared" si="3"/>
+        <v>6787</v>
+      </c>
+      <c r="B78" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="72">
+        <v>1001300456787</v>
       </c>
       <c r="E78" s="54"/>
       <c r="F78" s="14">
-        <f>E78*1</f>
+        <f>E78*0.33</f>
         <v>0</v>
       </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G78" s="26"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="24"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>4993</v>
-      </c>
-      <c r="B79" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="63">
-        <v>1001060764993</v>
+        <f t="shared" si="3"/>
+        <v>6946</v>
+      </c>
+      <c r="B79" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="72">
+        <v>1001300456946</v>
       </c>
       <c r="E79" s="54"/>
       <c r="F79" s="14">
-        <f>E79*0.25</f>
+        <f>E79</f>
         <v>0</v>
       </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>6453</v>
-      </c>
-      <c r="B80" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="73" t="s">
+      <c r="G79" s="26"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="24"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="35"/>
+      <c r="B80" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62" t="str">
+        <f t="shared" ref="A81:A90" si="4">RIGHT(D81,4)</f>
+        <v>5738</v>
+      </c>
+      <c r="B81" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="72">
-        <v>1001202506453</v>
-      </c>
-      <c r="E80" s="54"/>
-      <c r="F80" s="14">
-        <f>E80*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>4117</v>
-      </c>
-      <c r="B81" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="60" t="s">
-        <v>25</v>
-      </c>
       <c r="D81" s="63">
-        <v>1001062504117</v>
+        <v>1001061975738</v>
       </c>
       <c r="E81" s="54"/>
       <c r="F81" s="14">
-        <f>E81</f>
+        <f>E81*0.25</f>
         <v>0</v>
       </c>
       <c r="G81" s="14"/>
-      <c r="H81" s="15"/>
+      <c r="H81" s="20"/>
       <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>5681</v>
+        <v>5708</v>
       </c>
       <c r="B82" s="62" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C82" s="60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D82" s="63">
-        <v>1001190765681</v>
+        <v>1001063145708</v>
       </c>
       <c r="E82" s="54"/>
       <c r="F82" s="14">
-        <f>E82*0.15</f>
+        <f>E82*1</f>
         <v>0</v>
       </c>
       <c r="G82" s="14"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>5739</v>
+        <v>4993</v>
       </c>
       <c r="B83" s="62" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C83" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="63">
-        <v>1001062475739</v>
+        <v>1001060764993</v>
       </c>
       <c r="E83" s="54"/>
       <c r="F83" s="14">
@@ -3340,351 +3379,407 @@
         <v>0</v>
       </c>
       <c r="G83" s="14"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="24"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>1146</v>
+        <v>6453</v>
       </c>
       <c r="B84" s="71" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C84" s="73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D84" s="72">
-        <v>1001061971146</v>
+        <v>1001202506453</v>
       </c>
       <c r="E84" s="54"/>
       <c r="F84" s="14">
-        <f>E84*1</f>
+        <f>E84*0.5</f>
         <v>0</v>
       </c>
-      <c r="G84" s="26"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="24"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>4154</v>
-      </c>
-      <c r="B85" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="73" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B85" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="72">
-        <v>1001062474154</v>
+      <c r="D85" s="63">
+        <v>1001062504117</v>
       </c>
       <c r="E85" s="54"/>
       <c r="F85" s="14">
-        <f>E85*1</f>
+        <f>E85</f>
         <v>0</v>
       </c>
-      <c r="G85" s="26"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="24"/>
-    </row>
-    <row r="86" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="14"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>6835</v>
+        <v>5681</v>
       </c>
       <c r="B86" s="62" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C86" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="63">
-        <v>1001203146835</v>
+        <v>1001190765681</v>
       </c>
       <c r="E86" s="54"/>
       <c r="F86" s="14">
-        <f>E86*0.1</f>
+        <f>E86*0.15</f>
         <v>0</v>
       </c>
-      <c r="G86" s="26"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="24"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G86" s="14"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>5739</v>
+      </c>
+      <c r="B87" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="63">
+        <v>1001062475739</v>
+      </c>
+      <c r="E87" s="54"/>
+      <c r="F87" s="14">
+        <f>E87*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="14"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="24"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="62" t="str">
-        <f t="shared" ref="A88:A95" si="5">RIGHT(D88,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B88" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="63">
-        <v>1001094053215</v>
+        <f t="shared" si="4"/>
+        <v>1146</v>
+      </c>
+      <c r="B88" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="72">
+        <v>1001061971146</v>
       </c>
       <c r="E88" s="54"/>
       <c r="F88" s="14">
-        <f>E88</f>
+        <f>E88*1</f>
         <v>0</v>
       </c>
-      <c r="G88" s="14"/>
-      <c r="H88" s="15"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="61"/>
       <c r="I88" s="24"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>4154</v>
+      </c>
+      <c r="B89" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="72">
+        <v>1001062474154</v>
+      </c>
+      <c r="E89" s="54"/>
+      <c r="F89" s="14">
+        <f>E89*1</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="26"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="24"/>
+    </row>
+    <row r="90" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>6835</v>
+      </c>
+      <c r="B90" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="63">
+        <v>1001203146835</v>
+      </c>
+      <c r="E90" s="54"/>
+      <c r="F90" s="14">
+        <f>E90*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="26"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="24"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="35"/>
+      <c r="B91" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="62" t="str">
+        <f t="shared" ref="A92:A99" si="5">RIGHT(D92,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B92" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="63">
+        <v>1001094053215</v>
+      </c>
+      <c r="E92" s="54"/>
+      <c r="F92" s="14">
+        <f>E92</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="14"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="24"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="62" t="str">
         <f t="shared" si="5"/>
         <v>5452</v>
       </c>
-      <c r="B89" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="60" t="s">
+      <c r="B93" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="63">
+      <c r="D93" s="63">
         <v>1001092485452</v>
       </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="14">
-        <f>E89*0.4</f>
+      <c r="E93" s="54"/>
+      <c r="F93" s="14">
+        <f>E93*0.4</f>
         <v>0</v>
       </c>
-      <c r="G89" s="14"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="24"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="str">
+      <c r="G93" s="14"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="24"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="35" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-    </row>
-    <row r="91" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="62" t="str">
+      <c r="B94" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+    </row>
+    <row r="95" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="62" t="str">
         <f t="shared" si="5"/>
         <v>5074</v>
       </c>
-      <c r="B91" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" s="4" t="s">
+      <c r="B95" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D91" s="63">
+      <c r="D95" s="63">
         <v>1001080345074</v>
-      </c>
-      <c r="E91" s="54"/>
-      <c r="F91" s="14">
-        <f>E91*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="14"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="16"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>6207</v>
-      </c>
-      <c r="B92" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="63">
-        <v>1001083446207</v>
-      </c>
-      <c r="E92" s="54"/>
-      <c r="F92" s="14">
-        <f>E92*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="14"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="16"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>7089</v>
-      </c>
-      <c r="B93" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="63">
-        <v>1001084217089</v>
-      </c>
-      <c r="E93" s="54"/>
-      <c r="F93" s="14">
-        <f>E93*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="14"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="16"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>7187</v>
-      </c>
-      <c r="B94" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="C94" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="72">
-        <v>1001085637187</v>
-      </c>
-      <c r="E94" s="54"/>
-      <c r="F94" s="14">
-        <f>E94*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="14"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="16"/>
-    </row>
-    <row r="95" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>7104</v>
-      </c>
-      <c r="B95" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="C95" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="72">
-        <v>1001223297104</v>
       </c>
       <c r="E95" s="54"/>
       <c r="F95" s="14">
-        <f>E95*0.18</f>
+        <f>E95*0.3</f>
         <v>0</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="56">
-        <f>SUM(E10:E95)</f>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>6207</v>
+      </c>
+      <c r="B96" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="63">
+        <v>1001083446207</v>
+      </c>
+      <c r="E96" s="54"/>
+      <c r="F96" s="14">
+        <f>E96*0.3</f>
         <v>0</v>
       </c>
-      <c r="F96" s="28">
-        <f>SUM(F10:F95)</f>
+      <c r="G96" s="14"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>7089</v>
+      </c>
+      <c r="B97" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="63">
+        <v>1001084217089</v>
+      </c>
+      <c r="E97" s="54"/>
+      <c r="F97" s="14">
+        <f>E97*0.3</f>
         <v>0</v>
       </c>
-      <c r="G96" s="37"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="29"/>
-    </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="30"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="58"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="30"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="34"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="30"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="34"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" s="30"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="34"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G97" s="14"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="16"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>7187</v>
+      </c>
+      <c r="B98" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="72">
+        <v>1001085637187</v>
+      </c>
+      <c r="E98" s="54"/>
+      <c r="F98" s="14">
+        <f>E98*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>7104</v>
+      </c>
+      <c r="B99" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="72">
+        <v>1001223297104</v>
+      </c>
+      <c r="E99" s="54"/>
+      <c r="F99" s="14">
+        <f>E99*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="16"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="56">
+        <f>SUM(E10:E99)</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="28">
+        <f>SUM(F10:F99)</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="37"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="29"/>
+    </row>
+    <row r="101" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B101" s="30"/>
       <c r="C101" s="31"/>
       <c r="D101" s="31"/>
-      <c r="F101" s="32"/>
+      <c r="F101" s="59"/>
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
-      <c r="I101" s="34"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I101" s="58"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B102" s="30"/>
       <c r="C102" s="31"/>
       <c r="D102" s="31"/>
-      <c r="F102" s="32"/>
+      <c r="F102" s="59"/>
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
       <c r="I102" s="34"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103" s="30"/>
       <c r="C103" s="31"/>
       <c r="D103" s="31"/>
-      <c r="F103" s="32"/>
+      <c r="F103" s="59"/>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
       <c r="I103" s="34"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="30"/>
       <c r="C104" s="31"/>
       <c r="D104" s="31"/>
@@ -3693,7 +3788,7 @@
       <c r="H104" s="33"/>
       <c r="I104" s="34"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B105" s="30"/>
       <c r="C105" s="31"/>
       <c r="D105" s="31"/>
@@ -3702,7 +3797,7 @@
       <c r="H105" s="33"/>
       <c r="I105" s="34"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B106" s="30"/>
       <c r="C106" s="31"/>
       <c r="D106" s="31"/>
@@ -3711,7 +3806,7 @@
       <c r="H106" s="33"/>
       <c r="I106" s="34"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B107" s="30"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
@@ -3720,7 +3815,7 @@
       <c r="H107" s="33"/>
       <c r="I107" s="34"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" s="30"/>
       <c r="C108" s="31"/>
       <c r="D108" s="31"/>
@@ -3729,7 +3824,7 @@
       <c r="H108" s="33"/>
       <c r="I108" s="34"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="30"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
@@ -3738,7 +3833,7 @@
       <c r="H109" s="33"/>
       <c r="I109" s="34"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B110" s="30"/>
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
@@ -3747,7 +3842,7 @@
       <c r="H110" s="33"/>
       <c r="I110" s="34"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B111" s="30"/>
       <c r="C111" s="31"/>
       <c r="D111" s="31"/>
@@ -3756,7 +3851,7 @@
       <c r="H111" s="33"/>
       <c r="I111" s="34"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" s="30"/>
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
@@ -17337,8 +17432,44 @@
       <c r="H1620" s="33"/>
       <c r="I1620" s="34"/>
     </row>
+    <row r="1621" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1621" s="30"/>
+      <c r="C1621" s="31"/>
+      <c r="D1621" s="31"/>
+      <c r="F1621" s="32"/>
+      <c r="G1621" s="33"/>
+      <c r="H1621" s="33"/>
+      <c r="I1621" s="34"/>
+    </row>
+    <row r="1622" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1622" s="30"/>
+      <c r="C1622" s="31"/>
+      <c r="D1622" s="31"/>
+      <c r="F1622" s="32"/>
+      <c r="G1622" s="33"/>
+      <c r="H1622" s="33"/>
+      <c r="I1622" s="34"/>
+    </row>
+    <row r="1623" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1623" s="30"/>
+      <c r="C1623" s="31"/>
+      <c r="D1623" s="31"/>
+      <c r="F1623" s="32"/>
+      <c r="G1623" s="33"/>
+      <c r="H1623" s="33"/>
+      <c r="I1623" s="34"/>
+    </row>
+    <row r="1624" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1624" s="30"/>
+      <c r="C1624" s="31"/>
+      <c r="D1624" s="31"/>
+      <c r="F1624" s="32"/>
+      <c r="G1624" s="33"/>
+      <c r="H1624" s="33"/>
+      <c r="I1624" s="34"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:I98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:I102" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="F3:I3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9067E3-6B87-461B-8B20-92E051F1F03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A75BDC-21D6-4A9C-BCE8-A95A73EE6C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,14 +1017,6 @@
     <xf numFmtId="164" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1044,6 +1036,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1549,7 +1549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1575,13 +1575,13 @@
       <c r="D1" s="39">
         <v>130500100</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="48"/>
@@ -1592,28 +1592,28 @@
         <v>2</v>
       </c>
       <c r="D3" s="74">
-        <v>45909</v>
+        <v>45916</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:18" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C5" s="41" t="s">
@@ -2877,13 +2877,13 @@
         <f>RIGHT(D61,4)</f>
         <v>7332</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="86">
+      <c r="D61" s="82">
         <v>7332</v>
       </c>
       <c r="E61" s="54"/>
@@ -3161,29 +3161,29 @@
       <c r="H73" s="15"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="62" t="str">
         <f t="shared" si="3"/>
         <v>7333</v>
       </c>
-      <c r="B74" s="79" t="s">
+      <c r="B74" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="86">
+      <c r="D74" s="82">
         <v>7333</v>
       </c>
       <c r="E74" s="54"/>
-      <c r="F74" s="81">
+      <c r="F74" s="77">
         <f>E74*0.28</f>
         <v>0</v>
       </c>
-      <c r="G74" s="81"/>
-      <c r="H74" s="82"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="84"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="80"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="62" t="str">

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A75BDC-21D6-4A9C-BCE8-A95A73EE6C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED12C1-1F4D-44C4-837F-E79E3F92FB1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1592,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="74">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>3</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -2,21 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED12C1-1F4D-44C4-837F-E79E3F92FB1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F8B594-EBC5-4D5B-AC5C-195AC36DFBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="машины" sheetId="1" r:id="rId1"/>
+    <sheet name="машины" sheetId="21" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$98</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -31,27 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
   <si>
-    <t>OOO "MOS PROD TORG"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата отгрузки с ОМПК: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Доставка: </t>
-  </si>
-  <si>
-    <t>Самовывоз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Место отгрузки: </t>
-  </si>
-  <si>
-    <t>г. Москва, Огородный проезд, д. 18 стр. 18</t>
   </si>
   <si>
     <t xml:space="preserve">Ответственные: </t>
@@ -60,16 +40,10 @@
     <t xml:space="preserve">Москва :  </t>
   </si>
   <si>
-    <t>тел: 8 (495) 980-53-93, доб. 39-06</t>
-  </si>
-  <si>
     <t>ЗАКАЗ</t>
   </si>
   <si>
     <t>Тип заказа:</t>
-  </si>
-  <si>
-    <t>ZOR</t>
   </si>
   <si>
     <t>Название материала</t>
@@ -84,61 +58,187 @@
     <t>Заказ кг/шт</t>
   </si>
   <si>
-    <t>Вес нетто,  кг</t>
-  </si>
-  <si>
-    <t>Вес нетто короба,      кг</t>
-  </si>
-  <si>
-    <t>Срок реализации, суток</t>
-  </si>
-  <si>
     <t>Примечание</t>
   </si>
   <si>
     <t>Вареные колбасы</t>
   </si>
   <si>
-    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.35 кг</t>
+    <t>Сосиски</t>
+  </si>
+  <si>
+    <t>Сардельки</t>
+  </si>
+  <si>
+    <t>Полукопченые колбасы</t>
+  </si>
+  <si>
+    <t>Варенокопченые колбасы</t>
+  </si>
+  <si>
+    <t>Ветчины</t>
+  </si>
+  <si>
+    <t>ВСЕГО:</t>
+  </si>
+  <si>
+    <t>КГ</t>
   </si>
   <si>
     <t>ШТ</t>
   </si>
   <si>
+    <t>Сырокопченые колбасы</t>
+  </si>
+  <si>
+    <t>Копчености варенокопченые</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата отгрузки с ОМПК: </t>
+  </si>
+  <si>
+    <t>Срок реализации, суток</t>
+  </si>
+  <si>
+    <t>Вес нетто короба,      кг</t>
+  </si>
+  <si>
+    <t>Вес нетто,  кг</t>
+  </si>
+  <si>
+    <t>ZOR</t>
+  </si>
+  <si>
+    <t>МЯСНАЯ Папа может вар п/о_СНГ</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНАЯ Папа может вар п/о_СНГ</t>
+  </si>
+  <si>
+    <t>КАРБОНAД СТОЛИЧНЫЙ ПМ к/в кр/к в/у_СНГ</t>
+  </si>
+  <si>
+    <t>тел: 8 (495) 980-53-93, доб. 39-06</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может вар п/о 0.4кг_СНГ</t>
+  </si>
+  <si>
+    <t>МЯСНАЯ Папа может вар п/о 0.4кг_СНГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Место отгрузки: </t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ Папа может с/к в/у 1/250_СНГ</t>
+  </si>
+  <si>
+    <t>ЮБИЛЕЙНАЯ Папа может с/к в/у 1/250_СНГ</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/150_СНГ_60с</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
+  </si>
+  <si>
+    <t>БАВАРСКИЕ ПМ сос ц/о мгс 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 0.3кг</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/250*8_120с</t>
+  </si>
+  <si>
+    <t>ОКОРОК КОПЧЕНЫЙ к/в мл/к в/у 0.3кг_СНГ</t>
+  </si>
+  <si>
+    <t>СВИНИНА ПО-ДОМАШ. к/в мл/к в/у 0.3кг_СНГ</t>
+  </si>
+  <si>
     <t>КЛАССИЧЕСКАЯ Коровино вар п/о(обвязка)</t>
   </si>
   <si>
-    <t>КГ</t>
+    <t>КОПЧЕНЫЕ сос п/о мгс 0.45кг 7шт.</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 0.6кг</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сар б/о мгс 1*3_СНГ</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ сар б/о мгс 1*3 Ашан 45с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0.31кг</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОРЕХОВЫЙ ПМ в/к в/у 0.31кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ С АРОМ.ТРАВАМИ в/к в/у 0.31кг</t>
+  </si>
+  <si>
+    <t>ПОСОЛЬСКАЯ Папа может с/к в/у</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может с/к в/у_Л</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.МЯСНАЯ Папа может п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.МЯСНАЯ Папа может п/о</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</t>
+  </si>
+  <si>
+    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3_Маяк</t>
+  </si>
+  <si>
+    <t>ПОСОЛЬСКАЯ ПМ с/к с/н в/у 1/100 10шт_СНГ</t>
+  </si>
+  <si>
+    <t>МЯСНАЯ СО ШПИКОМ Папа может вар п/о_СНГ</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ ПМ сос п/о мгс 1*3_СНГ_45с</t>
+  </si>
+  <si>
+    <t>Самовывоз</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.35 кг</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</t>
   </si>
   <si>
     <t>РУССКАЯ ПРЕМИУМ ПМ вар ф/о в/у</t>
   </si>
   <si>
-    <t>ДОКТОРСКАЯ ПРЕМИУМ вар б/о мгс_30с</t>
-  </si>
-  <si>
     <t>ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.</t>
   </si>
   <si>
-    <t>МЯСНАЯ Папа может вар п/о 0.4кг_СНГ</t>
+    <t>МОЛОЧНЫЕ ГОСТ сос ц/о мгс 0.4кг 7шт.</t>
   </si>
   <si>
-    <t>МЯСНАЯ Папа может вар п/о_СНГ</t>
-  </si>
-  <si>
-    <t>МЯСНАЯ СО ШПИКОМ Папа может вар п/о_СНГ</t>
-  </si>
-  <si>
-    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.5кг_СНГ</t>
-  </si>
-  <si>
-    <t>ФИЛЕЙНАЯ Папа может вар п/о_СНГ</t>
-  </si>
-  <si>
-    <t>ЭКСТРА Папа может вар п/о 0.4кг_СНГ</t>
-  </si>
-  <si>
-    <t>ЭКСТРА Папа может вар п/о_СНГ</t>
+    <t>ДОКТОРСКАЯ ПРЕМИУМ вар б/о мгс_30с</t>
   </si>
   <si>
     <t>ДОКТОРСКАЯ ГОСТ вар п/о</t>
@@ -159,9 +259,6 @@
     <t>В ОБВЯЗКЕ СО ШПИКОМ вар п/о</t>
   </si>
   <si>
-    <t>Сосиски</t>
-  </si>
-  <si>
     <t>РУБЛЕНЫЕ сос ц/о мгс 0.36кг 6шт.</t>
   </si>
   <si>
@@ -171,34 +268,13 @@
     <t>ИСПАНСКИЕ сос ц/о мгс 0.41кг 6шт.</t>
   </si>
   <si>
-    <t>БАВАРСКИЕ ПМ сос ц/о мгс 0.35кг 8шт.</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
-  </si>
-  <si>
-    <t>КОПЧЕНЫЕ сос п/о мгс 0.45кг 7шт.</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт_СНГ</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 0.6кг</t>
+    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
   </si>
   <si>
     <t>МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О_50с</t>
   </si>
   <si>
-    <t>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
-  </si>
-  <si>
     <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг_50с</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ГОСТ сос ц/о мгс 0.4кг 7шт.</t>
   </si>
   <si>
     <t>СОЧНЫЕ ПМ сос п/о в/у 1/350 8шт_50с</t>
@@ -210,40 +286,19 @@
     <t>СОЧНЫЕ ПМ сос п/о мгс 1.5*4_А_50с</t>
   </si>
   <si>
-    <t>С ГОВЯДИНОЙ ПМ сос п/о мгс 1кг 6шт.</t>
+    <t>СЕРВЕЛАТ КОПЧ.НА БУКЕ в/к в/у 0.35кг_СНГ</t>
   </si>
   <si>
-    <t>МЯСНЫЕ ПМ сос п/о мгс 1*3_СНГ_45с</t>
+    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ вк в/у 0.28кг_СНГ</t>
   </si>
   <si>
-    <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0.72*4</t>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у_СНГ</t>
   </si>
   <si>
-    <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 1.5*2</t>
+    <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг_СНГ</t>
   </si>
   <si>
-    <t>ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</t>
-  </si>
-  <si>
-    <t>Сардельки</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сар б/о мгс 1*3_СНГ</t>
-  </si>
-  <si>
-    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ сар б/о мгс 1*3 Ашан 45с</t>
-  </si>
-  <si>
-    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3_Маяк</t>
-  </si>
-  <si>
-    <t>Полукопченые колбасы</t>
+    <t>СЕРВЕЛАТ ФИНСКИЙ в/к в/у_СНГ</t>
   </si>
   <si>
     <t>БОЯNСКАЯ Папа может п/к в/у 0.28кг_СНГ</t>
@@ -255,70 +310,34 @@
     <t>ЧЕСНОЧНАЯ Папа может п/к в/у 0.35кг СНГ</t>
   </si>
   <si>
-    <t>Варенокопченые колбасы</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КОПЧ.НА БУКЕ в/к в/у 0.35кг_СНГ</t>
-  </si>
-  <si>
     <t>СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/у_СНГ</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ вк в/у 0.28кг_СНГ</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0.31кг</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ОРЕХОВЫЙ ПМ в/к в/у 0.31кг 8шт.</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ С АРОМ.ТРАВАМИ в/к в/у 0.31кг</t>
   </si>
   <si>
     <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у 0.35кг_СНГ</t>
   </si>
   <si>
-    <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у_СНГ</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг_СНГ</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ФИНСКИЙ в/к в/у_СНГ</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
     <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.84кг</t>
   </si>
   <si>
-    <t>Сырокопченые колбасы</t>
-  </si>
-  <si>
-    <t>АРОМАТНАЯ Папа может с/к в/у 1/250_СНГ</t>
-  </si>
-  <si>
-    <t>ПОСОЛЬСКАЯ Папа может с/к в/у</t>
-  </si>
-  <si>
-    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/250*8_120с</t>
+    <t>БЕКОН Останкино с/к с/н в/у 1/180_СНГ_50</t>
   </si>
   <si>
     <t>ЭКСТРА Папа может с/к с/н в/у 1/100 14шт</t>
   </si>
   <si>
-    <t>ЭКСТРА Папа может с/к в/у_Л</t>
+    <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 1.5*2</t>
   </si>
   <si>
-    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/150_СНГ_60с</t>
+    <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0.72*4</t>
   </si>
   <si>
-    <t>ЮБИЛЕЙНАЯ Папа может с/к в/у 1/250_СНГ</t>
+    <t>МОЛОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт_СНГ</t>
+  </si>
+  <si>
+    <t>OOO "MOS PROD TORG"</t>
+  </si>
+  <si>
+    <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг_50с</t>
   </si>
   <si>
     <t>АРОМАТНАЯ с/к в/у</t>
@@ -327,52 +346,16 @@
     <t>ЮБИЛЕЙНАЯ с/к в/у_Л</t>
   </si>
   <si>
-    <t>ПОСОЛЬСКАЯ ПМ с/к с/н в/у 1/100 10шт_СНГ</t>
+    <t>МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 1.5*4</t>
   </si>
   <si>
-    <t>Ветчины</t>
+    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.5кг 8шт.</t>
   </si>
   <si>
-    <t>ВЕТЧ.МЯСНАЯ Папа может п/о 0.4кг 8шт.</t>
+    <t>ЭКСТРА Папа может вар п/о</t>
   </si>
   <si>
-    <t>ВЕТЧ.МЯСНАЯ Папа может п/о</t>
-  </si>
-  <si>
-    <t>Копчености варенокопченые</t>
-  </si>
-  <si>
-    <t>КАРБОНAД СТОЛИЧНЫЙ ПМ к/в кр/к в/у_СНГ</t>
-  </si>
-  <si>
-    <t>ОКОРОК КОПЧЕНЫЙ к/в мл/к в/у 0.3кг_СНГ</t>
-  </si>
-  <si>
-    <t>СВИНИНА ПО-ДОМАШ. к/в мл/к в/у 0.3кг_СНГ</t>
-  </si>
-  <si>
-    <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг_50с</t>
-  </si>
-  <si>
-    <t>БЕКОН Останкино с/к с/н в/у 1/180_СНГ_50</t>
-  </si>
-  <si>
-    <t>ВСЕГО:</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ С БЕК. п/о мгс 0.3кг_60с</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ</t>
-  </si>
-  <si>
-    <t>БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ</t>
+    <t>г. Москва, Огородный проезд, д. 18 стр. 18</t>
   </si>
 </sst>
 </file>
@@ -551,7 +534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,14 +588,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -772,6 +749,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="21"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="21"/>
+      </top>
+      <bottom style="double">
+        <color indexed="21"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="double">
@@ -798,16 +788,16 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="19" fillId="2" borderId="1">
+    <xf numFmtId="4" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="2" borderId="1">
+    <xf numFmtId="4" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -818,7 +808,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -852,7 +842,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -862,7 +852,7 @@
     <xf numFmtId="2" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,10 +861,10 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,12 +898,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -926,6 +917,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -935,7 +929,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1001,54 +995,40 @@
     <xf numFmtId="1" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="SAPBEXstdItem" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="SAPBEXstdItem 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="SAPBEXstdItem 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Обычный 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1083,10 +1063,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25654" name="Picture 7406">
+        <xdr:cNvPr id="25672" name="Picture 7406">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036640000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2A341E-202A-4183-87CB-ACD939268CFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,7 +1075,23 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FDFDFD"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FDFDFD">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect r="19516"/>
         <a:stretch>
           <a:fillRect/>
@@ -1112,8 +1108,26 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1133,10 +1147,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25655" name="Picture 7406">
+        <xdr:cNvPr id="25673" name="Picture 7406">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037640000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9416CC9C-2C54-4DC1-B572-E9F84A846EB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,7 +1159,23 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FDFDFD"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FDFDFD">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect r="19516"/>
         <a:stretch>
           <a:fillRect/>
@@ -1162,8 +1192,26 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1183,10 +1231,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25656" name="Picture 7406">
+        <xdr:cNvPr id="25674" name="Picture 7406">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038640000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D531FDAE-0C88-404E-B86E-52AC014AFF02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1195,7 +1243,23 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FDFDFD"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FDFDFD">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect r="19516"/>
         <a:stretch>
           <a:fillRect/>
@@ -1212,8 +1276,26 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1545,142 +1627,173 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R1624"/>
+  <dimension ref="A1:R1620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="9" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="47" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="59" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="7" customWidth="1"/>
     <col min="7" max="8" width="11.5703125" style="8" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" style="66" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="68" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="40">
         <v>130500100</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="43">
+        <v>45930</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="1:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="F3" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+    </row>
+    <row r="4" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="74">
-        <v>45923</v>
-      </c>
-      <c r="E3" s="49" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="85"/>
-    </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="41" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="43"/>
-    </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="48"/>
+      <c r="E7" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:18" s="12" customFormat="1" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>9</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="67"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="69"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1690,34 +1803,34 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="53"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="13"/>
       <c r="G10" s="21"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:18" s="17" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="str">
+    <row r="11" spans="1:18" s="17" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="64" t="str">
         <f>RIGHT(D11,4)</f>
         <v>7231</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>22</v>
+      <c r="B11" s="64" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="63">
+        <v>19</v>
+      </c>
+      <c r="D11" s="65">
         <v>1001013957231</v>
       </c>
-      <c r="E11" s="54"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="14">
         <f>E11*0.35</f>
         <v>0</v>
@@ -1725,7 +1838,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="66"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -1736,20 +1849,20 @@
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="str">
-        <f>RIGHT(D12,4)</f>
+      <c r="A12" s="64" t="str">
+        <f t="shared" ref="A12:A21" si="0">RIGHT(D12,4)</f>
         <v>6859</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>24</v>
+      <c r="B12" s="64" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="63">
+        <v>18</v>
+      </c>
+      <c r="D12" s="65">
         <v>1001013956859</v>
       </c>
-      <c r="E12" s="54"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="14">
         <f>E12</f>
         <v>0</v>
@@ -1757,7 +1870,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="66"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -1768,20 +1881,20 @@
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="str">
-        <f>RIGHT(D13,4)</f>
+      <c r="A13" s="67" t="str">
+        <f t="shared" si="0"/>
         <v>5247</v>
       </c>
-      <c r="B13" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="68">
+      <c r="B13" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="70">
         <v>1001010855247</v>
       </c>
-      <c r="E13" s="54"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="14">
         <f>E13*1</f>
         <v>0</v>
@@ -1789,7 +1902,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="66"/>
+      <c r="J13" s="68"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1800,19 +1913,19 @@
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64">
+      <c r="A14" s="66">
         <v>5246</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>27</v>
+      <c r="B14" s="64" t="s">
+        <v>70</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="63">
+        <v>18</v>
+      </c>
+      <c r="D14" s="65">
         <v>1001010105246</v>
       </c>
-      <c r="E14" s="54"/>
+      <c r="E14" s="56"/>
       <c r="F14" s="14">
         <f>E14*1</f>
         <v>0</v>
@@ -1820,7 +1933,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="66"/>
+      <c r="J14" s="68"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -1831,19 +1944,19 @@
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64">
+      <c r="A15" s="66">
         <v>6325</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>28</v>
+      <c r="B15" s="64" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="63">
+        <v>19</v>
+      </c>
+      <c r="D15" s="65">
         <v>1001010106325</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="14">
         <f>E15*0.4</f>
         <v>0</v>
@@ -1851,7 +1964,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="66"/>
+      <c r="J15" s="68"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1862,20 +1975,20 @@
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="str">
-        <f t="shared" ref="A16:A29" si="0">RIGHT(D16,4)</f>
+      <c r="A16" s="64" t="str">
+        <f t="shared" si="0"/>
         <v>6334</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>29</v>
+      <c r="B16" s="64" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="63">
+        <v>19</v>
+      </c>
+      <c r="D16" s="65">
         <v>1001012486334</v>
       </c>
-      <c r="E16" s="54"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="14">
         <f>E16*0.4</f>
         <v>0</v>
@@ -1885,20 +1998,20 @@
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="str">
+      <c r="A17" s="64" t="str">
         <f t="shared" si="0"/>
         <v>4405</v>
       </c>
-      <c r="B17" s="62" t="s">
-        <v>30</v>
+      <c r="B17" s="64" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="63">
+        <v>18</v>
+      </c>
+      <c r="D17" s="65">
         <v>1001012484405</v>
       </c>
-      <c r="E17" s="54"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="14">
         <f>E17</f>
         <v>0</v>
@@ -1908,20 +2021,20 @@
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="str">
+      <c r="A18" s="64" t="str">
         <f t="shared" si="0"/>
         <v>4408</v>
       </c>
-      <c r="B18" s="62" t="s">
-        <v>31</v>
+      <c r="B18" s="64" t="s">
+        <v>61</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="63">
+        <v>18</v>
+      </c>
+      <c r="D18" s="65">
         <v>1001012634408</v>
       </c>
-      <c r="E18" s="54"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="14">
         <f>E18</f>
         <v>0</v>
@@ -1931,20 +2044,20 @@
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="str">
+      <c r="A19" s="64" t="str">
         <f t="shared" si="0"/>
-        <v>6346</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>32</v>
+        <v>6345</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="63">
-        <v>1001012566346</v>
-      </c>
-      <c r="E19" s="54"/>
+        <v>19</v>
+      </c>
+      <c r="D19" s="65">
+        <v>1001012566345</v>
+      </c>
+      <c r="E19" s="56"/>
       <c r="F19" s="14">
         <f>E19*0.5</f>
         <v>0</v>
@@ -1952,7 +2065,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="66"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -1963,20 +2076,20 @@
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="62" t="str">
+      <c r="A20" s="64" t="str">
         <f t="shared" si="0"/>
         <v>4335</v>
       </c>
-      <c r="B20" s="62" t="s">
-        <v>33</v>
+      <c r="B20" s="64" t="s">
+        <v>28</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="63">
+        <v>18</v>
+      </c>
+      <c r="D20" s="65">
         <v>1001012564335</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="14">
         <f>E20</f>
         <v>0</v>
@@ -1986,20 +2099,20 @@
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="62" t="str">
+      <c r="A21" s="64" t="str">
         <f t="shared" si="0"/>
         <v>6354</v>
       </c>
-      <c r="B21" s="62" t="s">
-        <v>34</v>
+      <c r="B21" s="64" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="63">
+        <v>19</v>
+      </c>
+      <c r="D21" s="65">
         <v>1001012506354</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="14">
         <f>E21*0.4</f>
         <v>0</v>
@@ -2009,20 +2122,20 @@
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v>3220</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>35</v>
+      <c r="A22" s="64" t="str">
+        <f>RIGHT(D22,4)</f>
+        <v>5851</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>108</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="63">
-        <v>1001012503220</v>
-      </c>
-      <c r="E22" s="54"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="65">
+        <v>1001012505851</v>
+      </c>
+      <c r="E22" s="56"/>
       <c r="F22" s="14">
         <f>E22</f>
         <v>0</v>
@@ -2032,21 +2145,21 @@
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="62" t="str">
-        <f t="shared" si="0"/>
+      <c r="A23" s="64" t="str">
+        <f t="shared" ref="A23:A28" si="1">RIGHT(D23,4)</f>
         <v>4555</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>36</v>
+      <c r="B23" s="64" t="s">
+        <v>71</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="63">
+        <v>18</v>
+      </c>
+      <c r="D23" s="65">
         <v>1001010014555</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="69">
+      <c r="E23" s="56"/>
+      <c r="F23" s="71">
         <f>E23</f>
         <v>0</v>
       </c>
@@ -2055,21 +2168,21 @@
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="62" t="str">
-        <f t="shared" si="0"/>
+      <c r="A24" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>6327</v>
       </c>
-      <c r="B24" s="62" t="s">
-        <v>37</v>
+      <c r="B24" s="64" t="s">
+        <v>72</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="63">
+        <v>18</v>
+      </c>
+      <c r="D24" s="65">
         <v>1001010116327</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="69">
+      <c r="E24" s="56"/>
+      <c r="F24" s="71">
         <f>E24</f>
         <v>0</v>
       </c>
@@ -2078,21 +2191,21 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="62" t="str">
-        <f t="shared" si="0"/>
+      <c r="A25" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>6861</v>
       </c>
-      <c r="B25" s="62" t="s">
-        <v>38</v>
+      <c r="B25" s="64" t="s">
+        <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="63">
+        <v>18</v>
+      </c>
+      <c r="D25" s="65">
         <v>1001015646861</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="69">
+      <c r="E25" s="56"/>
+      <c r="F25" s="71">
         <f>E25</f>
         <v>0</v>
       </c>
@@ -2101,21 +2214,21 @@
       <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="62" t="str">
-        <f t="shared" si="0"/>
+      <c r="A26" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>6268</v>
       </c>
-      <c r="B26" s="62" t="s">
-        <v>39</v>
+      <c r="B26" s="64" t="s">
+        <v>74</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="63">
+        <v>19</v>
+      </c>
+      <c r="D26" s="65">
         <v>1001012426268</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="69">
+      <c r="E26" s="56"/>
+      <c r="F26" s="71">
         <f>E26*0.4</f>
         <v>0</v>
       </c>
@@ -2124,21 +2237,21 @@
       <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v>6220</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>111</v>
+      <c r="A27" s="64" t="str">
+        <f t="shared" si="1"/>
+        <v>6877</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>75</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="63">
-        <v>1001012426220</v>
-      </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="69">
+        <v>18</v>
+      </c>
+      <c r="D27" s="65">
+        <v>1001015676877</v>
+      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="71">
         <f>E27</f>
         <v>0</v>
       </c>
@@ -2146,22 +2259,22 @@
       <c r="H27" s="15"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v>6877</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>40</v>
+    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="str">
+        <f t="shared" si="1"/>
+        <v>6878</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>76</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="63">
-        <v>1001015676877</v>
-      </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="69">
+        <v>18</v>
+      </c>
+      <c r="D28" s="65">
+        <v>1001015686878</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="71">
         <f>E28</f>
         <v>0</v>
       </c>
@@ -2169,59 +2282,59 @@
       <c r="H28" s="15"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v>6878</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="63">
-        <v>1001015686878</v>
-      </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="69">
-        <f>E29</f>
+    <row r="29" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="64" t="str">
+        <f>RIGHT(D30,4)</f>
+        <v>6765</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="65">
+        <v>1001023696765</v>
+      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="19">
+        <f>E30*0.36</f>
         <v>0</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62" t="str">
-        <f t="shared" ref="A31:A41" si="1">RIGHT(D31,4)</f>
-        <v>6765</v>
+      <c r="G30" s="14"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="64" t="str">
+        <f>RIGHT(D31,4)</f>
+        <v>6768</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="63">
-        <v>1001023696765</v>
-      </c>
-      <c r="E31" s="54"/>
+        <v>78</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="65">
+        <v>1001025176768</v>
+      </c>
+      <c r="E31" s="56"/>
       <c r="F31" s="19">
-        <f>E31*0.36</f>
+        <f>E31*0.41</f>
         <v>0</v>
       </c>
       <c r="G31" s="14"/>
@@ -2229,20 +2342,20 @@
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>6768</v>
+      <c r="A32" s="64" t="str">
+        <f>RIGHT(D32,4)</f>
+        <v>6770</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="63">
-        <v>1001025176768</v>
-      </c>
-      <c r="E32" s="54"/>
+        <v>79</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="65">
+        <v>1001025486770</v>
+      </c>
+      <c r="E32" s="56"/>
       <c r="F32" s="19">
         <f>E32*0.41</f>
         <v>0</v>
@@ -2252,22 +2365,22 @@
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>6770</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="63">
-        <v>1001025486770</v>
-      </c>
-      <c r="E33" s="54"/>
+      <c r="A33" s="64" t="str">
+        <f>RIGHT(D33,4)</f>
+        <v>6602</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="65">
+        <v>1001021966602</v>
+      </c>
+      <c r="E33" s="56"/>
       <c r="F33" s="19">
-        <f>E33*0.41</f>
+        <f>E33*0.35</f>
         <v>0</v>
       </c>
       <c r="G33" s="14"/>
@@ -2275,22 +2388,22 @@
       <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>6602</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="63">
-        <v>1001021966602</v>
-      </c>
-      <c r="E34" s="54"/>
+      <c r="A34" s="64" t="str">
+        <f t="shared" ref="A34:A95" si="2">RIGHT(D34,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="70">
+        <v>1001022246713</v>
+      </c>
+      <c r="E34" s="56"/>
       <c r="F34" s="19">
-        <f>E34*0.35</f>
+        <f>E34*0.41</f>
         <v>0</v>
       </c>
       <c r="G34" s="14"/>
@@ -2298,45 +2411,45 @@
       <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>6713</v>
-      </c>
-      <c r="B35" s="62" t="s">
+      <c r="A35" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6240</v>
+      </c>
+      <c r="B35" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="63">
-        <v>1001022246713</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="19">
-        <f>E35*0.41</f>
+      <c r="C35" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="70">
+        <v>1001022246240</v>
+      </c>
+      <c r="E35" s="56"/>
+      <c r="F35" s="14">
+        <f>E35*0.45</f>
         <v>0</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="16"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>6240</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="63">
-        <v>1001022246240</v>
-      </c>
-      <c r="E36" s="54"/>
+      <c r="A36" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7151</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="70">
+        <v>1001020837151</v>
+      </c>
+      <c r="E36" s="56"/>
       <c r="F36" s="14">
-        <f>E36*0.45</f>
+        <f>E36*0.41</f>
         <v>0</v>
       </c>
       <c r="G36" s="14"/>
@@ -2344,22 +2457,22 @@
       <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>7151</v>
-      </c>
-      <c r="B37" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="72">
-        <v>1001020837151</v>
-      </c>
-      <c r="E37" s="54"/>
+      <c r="A37" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6854</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="70">
+        <v>1001022656854</v>
+      </c>
+      <c r="E37" s="56"/>
       <c r="F37" s="14">
-        <f>E37*0.41</f>
+        <f>E37*0.6</f>
         <v>0</v>
       </c>
       <c r="G37" s="14"/>
@@ -2367,45 +2480,45 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>6854</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="68">
-        <v>1001022656854</v>
-      </c>
-      <c r="E38" s="54"/>
+      <c r="A38" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7075</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="70">
+        <v>1001022657075</v>
+      </c>
+      <c r="E38" s="56"/>
       <c r="F38" s="14">
-        <f>E38*0.6</f>
+        <f>E38</f>
         <v>0</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
+      <c r="H38" s="16"/>
       <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>7075</v>
-      </c>
-      <c r="B39" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="72">
-        <v>1001022657075</v>
-      </c>
-      <c r="E39" s="54"/>
+      <c r="A39" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>5819</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="70">
+        <v>1001022725819</v>
+      </c>
+      <c r="E39" s="56"/>
       <c r="F39" s="14">
-        <f>E39</f>
+        <f>E39*0.4</f>
         <v>0</v>
       </c>
       <c r="G39" s="14"/>
@@ -2413,20 +2526,20 @@
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>5819</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="68">
-        <v>1001022725819</v>
-      </c>
-      <c r="E40" s="54"/>
+      <c r="A40" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7255</v>
+      </c>
+      <c r="B40" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="73">
+        <v>1001025507255</v>
+      </c>
+      <c r="E40" s="56"/>
       <c r="F40" s="14">
         <f>E40*0.4</f>
         <v>0</v>
@@ -2436,22 +2549,22 @@
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>7077</v>
-      </c>
-      <c r="B41" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="72">
-        <v>1001025507077</v>
-      </c>
-      <c r="E41" s="54"/>
+      <c r="A41" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7271</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="73">
+        <v>1001025507271</v>
+      </c>
+      <c r="E41" s="56"/>
       <c r="F41" s="14">
-        <f>E41*0.4</f>
+        <f>E41*1</f>
         <v>0</v>
       </c>
       <c r="G41" s="14"/>
@@ -2459,19 +2572,19 @@
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="64">
+      <c r="A42" s="66">
         <v>6870</v>
       </c>
-      <c r="B42" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="68">
+      <c r="B42" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="70">
         <v>1001022466726</v>
       </c>
-      <c r="E42" s="54"/>
+      <c r="E42" s="56"/>
       <c r="F42" s="14">
         <f>E42*0.41</f>
         <v>0</v>
@@ -2481,19 +2594,19 @@
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="64">
+      <c r="A43" s="66">
         <v>6759</v>
       </c>
-      <c r="B43" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="68">
+      <c r="B43" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="70">
         <v>1001020836759</v>
       </c>
-      <c r="E43" s="54"/>
+      <c r="E43" s="56"/>
       <c r="F43" s="14">
         <f>E43*0.4</f>
         <v>0</v>
@@ -2503,20 +2616,20 @@
       <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="62" t="str">
-        <f>RIGHT(D44,4)</f>
+      <c r="A44" s="64" t="str">
+        <f t="shared" si="2"/>
         <v>7064</v>
       </c>
-      <c r="B44" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="72">
+      <c r="B44" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="70">
         <v>1001022377064</v>
       </c>
-      <c r="E44" s="54"/>
+      <c r="E44" s="56"/>
       <c r="F44" s="14">
         <f>E44*0.35</f>
         <v>0</v>
@@ -2526,20 +2639,20 @@
       <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="62" t="str">
-        <f>RIGHT(D45,4)</f>
+      <c r="A45" s="64" t="str">
+        <f t="shared" si="2"/>
         <v>7067</v>
       </c>
-      <c r="B45" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="72">
+      <c r="B45" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="70">
         <v>1001022377067</v>
       </c>
-      <c r="E45" s="54"/>
+      <c r="E45" s="56"/>
       <c r="F45" s="14">
         <f>E45*0.41</f>
         <v>0</v>
@@ -2549,20 +2662,20 @@
       <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="62" t="str">
-        <f>RIGHT(D46,4)</f>
+      <c r="A46" s="64" t="str">
+        <f t="shared" si="2"/>
         <v>7070</v>
       </c>
-      <c r="B46" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="72">
+      <c r="B46" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="70">
         <v>1001022377070</v>
       </c>
-      <c r="E46" s="54"/>
+      <c r="E46" s="56"/>
       <c r="F46" s="14">
         <f>E46</f>
         <v>0</v>
@@ -2572,21 +2685,22 @@
       <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="70">
-        <v>7037</v>
-      </c>
-      <c r="B47" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="68">
-        <v>1001023857037</v>
-      </c>
-      <c r="E47" s="54"/>
+      <c r="A47" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6303</v>
+      </c>
+      <c r="B47" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="70">
+        <v>1001022726303</v>
+      </c>
+      <c r="E47" s="56"/>
       <c r="F47" s="14">
-        <f>E47</f>
+        <f>E47*1</f>
         <v>0</v>
       </c>
       <c r="G47" s="26"/>
@@ -2594,20 +2708,20 @@
       <c r="I47" s="24"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="62" t="str">
-        <f>RIGHT(D48,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="63">
-        <v>1001022726303</v>
-      </c>
-      <c r="E48" s="54"/>
+      <c r="A48" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7244</v>
+      </c>
+      <c r="B48" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="70">
+        <v>1001022557244</v>
+      </c>
+      <c r="E48" s="56"/>
       <c r="F48" s="14">
         <f>E48*1</f>
         <v>0</v>
@@ -2617,20 +2731,20 @@
       <c r="I48" s="24"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="62" t="str">
-        <f>RIGHT(D49,4)</f>
-        <v>7244</v>
-      </c>
-      <c r="B49" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="72">
-        <v>1001022557244</v>
-      </c>
-      <c r="E49" s="54"/>
+      <c r="A49" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6254</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="65">
+        <v>1001022556254</v>
+      </c>
+      <c r="E49" s="56"/>
       <c r="F49" s="14">
         <f>E49*1</f>
         <v>0</v>
@@ -2639,82 +2753,82 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="62" t="str">
-        <f>RIGHT(D50,4)</f>
-        <v>6254</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="63">
-        <v>1001022556254</v>
-      </c>
-      <c r="E50" s="54"/>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6837</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="65">
+        <v>1001022556837</v>
+      </c>
+      <c r="E50" s="56"/>
       <c r="F50" s="14">
-        <f>E50*1</f>
+        <f>E50*0.4</f>
         <v>0</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="str">
-        <f>RIGHT(D51,4)</f>
-        <v>6837</v>
-      </c>
-      <c r="B51" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="63">
-        <v>1001022556837</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="14">
-        <f>E51*0.4</f>
+    <row r="51" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
+      <c r="B51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6549</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="65">
+        <v>1001032736549</v>
+      </c>
+      <c r="E52" s="56"/>
+      <c r="F52" s="14">
+        <f>E52</f>
         <v>0</v>
       </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62" t="str">
-        <f t="shared" ref="A53:A58" si="2">RIGHT(D53,4)</f>
-        <v>6549</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="63">
-        <v>1001032736549</v>
-      </c>
-      <c r="E53" s="54"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6609</v>
+      </c>
+      <c r="B53" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="70">
+        <v>1001033856609</v>
+      </c>
+      <c r="E53" s="56"/>
       <c r="F53" s="14">
-        <f>E53</f>
+        <f>E53*0.4</f>
         <v>0</v>
       </c>
       <c r="G53" s="14"/>
@@ -2722,22 +2836,22 @@
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="62" t="str">
+      <c r="A54" s="64" t="str">
         <f t="shared" si="2"/>
-        <v>6609</v>
-      </c>
-      <c r="B54" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="63">
-        <v>1001033856609</v>
-      </c>
-      <c r="E54" s="54"/>
+        <v>7059</v>
+      </c>
+      <c r="B54" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="70">
+        <v>1001035277059</v>
+      </c>
+      <c r="E54" s="56"/>
       <c r="F54" s="14">
-        <f>E54*0.4</f>
+        <f>E54*0.3</f>
         <v>0</v>
       </c>
       <c r="G54" s="14"/>
@@ -2745,22 +2859,22 @@
       <c r="I54" s="23"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="62" t="str">
+      <c r="A55" s="64" t="str">
         <f t="shared" si="2"/>
-        <v>7059</v>
-      </c>
-      <c r="B55" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="63">
-        <v>1001035277059</v>
-      </c>
-      <c r="E55" s="54"/>
+        <v>7058</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="70">
+        <v>1001035277058</v>
+      </c>
+      <c r="E55" s="56"/>
       <c r="F55" s="14">
-        <f>E55*0.3</f>
+        <f>E55</f>
         <v>0</v>
       </c>
       <c r="G55" s="14"/>
@@ -2768,20 +2882,20 @@
       <c r="I55" s="23"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="62" t="str">
+      <c r="A56" s="64" t="str">
         <f t="shared" si="2"/>
-        <v>7058</v>
-      </c>
-      <c r="B56" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="72">
-        <v>1001035277058</v>
-      </c>
-      <c r="E56" s="54"/>
+        <v>6548</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="65">
+        <v>1001031076548</v>
+      </c>
+      <c r="E56" s="56"/>
       <c r="F56" s="14">
         <f>E56</f>
         <v>0</v>
@@ -2790,80 +2904,80 @@
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="62" t="str">
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="64" t="str">
         <f t="shared" si="2"/>
-        <v>6548</v>
-      </c>
-      <c r="B57" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="63">
-        <v>1001031076548</v>
-      </c>
-      <c r="E57" s="54"/>
+        <v>5698</v>
+      </c>
+      <c r="B57" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="65">
+        <v>1001034065698</v>
+      </c>
+      <c r="E57" s="56"/>
       <c r="F57" s="14">
         <f>E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-    </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="62" t="str">
+      <c r="G57" s="26"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="35"/>
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="64" t="str">
         <f t="shared" si="2"/>
-        <v>5698</v>
-      </c>
-      <c r="B58" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="63">
-        <v>1001034065698</v>
-      </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="14">
-        <f>E58</f>
+        <v>7174</v>
+      </c>
+      <c r="B59" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="70">
+        <v>1001302277174</v>
+      </c>
+      <c r="E59" s="56"/>
+      <c r="F59" s="14">
+        <f>E59*0.28</f>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-    </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="62" t="str">
-        <f>RIGHT(D60,4)</f>
-        <v>7174</v>
-      </c>
-      <c r="B60" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="72">
-        <v>1001302277174</v>
-      </c>
-      <c r="E60" s="54"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7241</v>
+      </c>
+      <c r="B60" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="70">
+        <v>1001303107241</v>
+      </c>
+      <c r="E60" s="56"/>
       <c r="F60" s="14">
         <f>E60*0.28</f>
         <v>0</v>
@@ -2872,126 +2986,126 @@
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62" t="str">
-        <f>RIGHT(D61,4)</f>
-        <v>7332</v>
-      </c>
-      <c r="B61" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="82">
-        <v>7332</v>
-      </c>
-      <c r="E61" s="54"/>
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7176</v>
+      </c>
+      <c r="B61" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="70">
+        <v>1001302347176</v>
+      </c>
+      <c r="E61" s="56"/>
       <c r="F61" s="14">
-        <f>E61*0.28</f>
+        <f>E61*0.35</f>
         <v>0</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="62" t="str">
-        <f>RIGHT(D62,4)</f>
-        <v>7241</v>
-      </c>
-      <c r="B62" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="72">
-        <v>1001303107241</v>
-      </c>
-      <c r="E62" s="54"/>
-      <c r="F62" s="14">
-        <f>E62*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="14"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-    </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="62" t="str">
-        <f>RIGHT(D63,4)</f>
-        <v>7176</v>
-      </c>
-      <c r="B63" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="72">
-        <v>1001302347176</v>
-      </c>
-      <c r="E63" s="54"/>
+    <row r="62" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="35"/>
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7158</v>
+      </c>
+      <c r="B63" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="70">
+        <v>1001304237158</v>
+      </c>
+      <c r="E63" s="56"/>
       <c r="F63" s="14">
         <f>E63*0.35</f>
         <v>0</v>
       </c>
-      <c r="G63" s="14"/>
+      <c r="G63" s="19"/>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="62" t="str">
-        <f t="shared" ref="A65:A79" si="3">RIGHT(D65,4)</f>
-        <v>7158</v>
-      </c>
-      <c r="B65" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="72">
-        <v>1001304237158</v>
-      </c>
-      <c r="E65" s="54"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7159</v>
+      </c>
+      <c r="B64" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="70">
+        <v>1001304237159</v>
+      </c>
+      <c r="E64" s="56"/>
+      <c r="F64" s="14">
+        <f>E64*1</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="19"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7230</v>
+      </c>
+      <c r="B65" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="70">
+        <v>1001304507230</v>
+      </c>
+      <c r="E65" s="56"/>
       <c r="F65" s="14">
-        <f>E65*0.35</f>
+        <f>E65*0.28</f>
         <v>0</v>
       </c>
       <c r="G65" s="19"/>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>7159</v>
-      </c>
-      <c r="B66" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="72">
-        <v>1001304237159</v>
-      </c>
-      <c r="E66" s="54"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6790</v>
+      </c>
+      <c r="B66" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="70">
+        <v>1001300366790</v>
+      </c>
+      <c r="E66" s="56"/>
       <c r="F66" s="14">
         <f>E66*1</f>
         <v>0</v>
@@ -3000,786 +3114,726 @@
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>7230</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="72">
-        <v>1001304507230</v>
-      </c>
-      <c r="E67" s="54"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6566</v>
+      </c>
+      <c r="B67" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="70">
+        <v>1001305306566</v>
+      </c>
+      <c r="E67" s="56"/>
       <c r="F67" s="14">
-        <f>E67*0.28</f>
+        <f>E67*0.31</f>
         <v>0</v>
       </c>
       <c r="G67" s="19"/>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>6790</v>
-      </c>
-      <c r="B68" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="68">
-        <v>1001300366790</v>
-      </c>
-      <c r="E68" s="54"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7238</v>
+      </c>
+      <c r="B68" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="70">
+        <v>1001305197238</v>
+      </c>
+      <c r="E68" s="56"/>
       <c r="F68" s="14">
-        <f>E68*1</f>
+        <f>E68*0.31</f>
         <v>0</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="16"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>6807</v>
-      </c>
-      <c r="B69" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="68">
-        <v>1001300366807</v>
-      </c>
-      <c r="E69" s="54"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6565</v>
+      </c>
+      <c r="B69" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="70">
+        <v>1001305316565</v>
+      </c>
+      <c r="E69" s="56"/>
       <c r="F69" s="14">
-        <f>E69*0.33</f>
+        <f>E69*0.31</f>
         <v>0</v>
       </c>
-      <c r="G69" s="19"/>
+      <c r="G69" s="14"/>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>6566</v>
-      </c>
-      <c r="B70" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="68">
-        <v>1001305306566</v>
-      </c>
-      <c r="E70" s="54"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7162</v>
+      </c>
+      <c r="B70" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="70">
+        <v>1001303987162</v>
+      </c>
+      <c r="E70" s="56"/>
       <c r="F70" s="14">
-        <f>E70*0.31</f>
+        <f>E70*0.35</f>
         <v>0</v>
       </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="16"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="15"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>7238</v>
-      </c>
-      <c r="B71" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="72">
-        <v>1001305197238</v>
-      </c>
-      <c r="E71" s="54"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7165</v>
+      </c>
+      <c r="B71" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="70">
+        <v>1001303987165</v>
+      </c>
+      <c r="E71" s="56"/>
       <c r="F71" s="14">
-        <f>E71*0.31</f>
+        <f>E71*1</f>
         <v>0</v>
       </c>
       <c r="G71" s="14"/>
-      <c r="H71" s="15"/>
+      <c r="H71" s="22"/>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>6565</v>
-      </c>
-      <c r="B72" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="68">
-        <v>1001305316565</v>
-      </c>
-      <c r="E72" s="54"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6698</v>
+      </c>
+      <c r="B72" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="70">
+        <v>1001301876698</v>
+      </c>
+      <c r="E72" s="56"/>
       <c r="F72" s="14">
-        <f>E72*0.31</f>
+        <f>E72*0.35</f>
         <v>0</v>
       </c>
       <c r="G72" s="14"/>
-      <c r="H72" s="16"/>
+      <c r="H72" s="15"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>7162</v>
-      </c>
-      <c r="B73" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="72">
-        <v>1001303987162</v>
-      </c>
-      <c r="E73" s="54"/>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>5607</v>
+      </c>
+      <c r="B73" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="70">
+        <v>1001051875607</v>
+      </c>
+      <c r="E73" s="56"/>
       <c r="F73" s="14">
-        <f>E73*0.35</f>
+        <f>E73*1</f>
         <v>0</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>7333</v>
-      </c>
-      <c r="B74" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="82">
-        <v>7333</v>
-      </c>
-      <c r="E74" s="54"/>
-      <c r="F74" s="77">
-        <f>E74*0.28</f>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6787</v>
+      </c>
+      <c r="B74" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="70">
+        <v>1001300456787</v>
+      </c>
+      <c r="E74" s="56"/>
+      <c r="F74" s="14">
+        <f>E74*0.33</f>
         <v>0</v>
       </c>
-      <c r="G74" s="77"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="80"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>7165</v>
-      </c>
-      <c r="B75" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="72">
-        <v>1001303987165</v>
-      </c>
-      <c r="E75" s="54"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="24"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6946</v>
+      </c>
+      <c r="B75" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="70">
+        <v>1001300456946</v>
+      </c>
+      <c r="E75" s="56"/>
       <c r="F75" s="14">
-        <f>E75*1</f>
+        <f>E75</f>
         <v>0</v>
       </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="16"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>6698</v>
-      </c>
-      <c r="B76" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="72">
-        <v>1001301876698</v>
-      </c>
-      <c r="E76" s="54"/>
-      <c r="F76" s="14">
-        <f>E76*0.35</f>
+      <c r="G75" s="26"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="24"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="35"/>
+      <c r="B76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>5738</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="65">
+        <v>1001061975738</v>
+      </c>
+      <c r="E77" s="56"/>
+      <c r="F77" s="14">
+        <f>E77*0.25</f>
         <v>0</v>
       </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="16"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>5607</v>
-      </c>
-      <c r="B77" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="72">
-        <v>1001051875607</v>
-      </c>
-      <c r="E77" s="54"/>
-      <c r="F77" s="14">
-        <f>E77*1</f>
+      <c r="G77" s="14"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>5708</v>
+      </c>
+      <c r="B78" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="70">
+        <v>1001063145708</v>
+      </c>
+      <c r="E78" s="56"/>
+      <c r="F78" s="14">
+        <f>E78*1</f>
         <v>0</v>
       </c>
-      <c r="G77" s="14"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="16"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>6787</v>
-      </c>
-      <c r="B78" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="72">
-        <v>1001300456787</v>
-      </c>
-      <c r="E78" s="54"/>
-      <c r="F78" s="14">
-        <f>E78*0.33</f>
+      <c r="G78" s="14"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>4993</v>
+      </c>
+      <c r="B79" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="70">
+        <v>1001060764993</v>
+      </c>
+      <c r="E79" s="56"/>
+      <c r="F79" s="14">
+        <f>E79*0.5</f>
         <v>0</v>
       </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="24"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>6946</v>
-      </c>
-      <c r="B79" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="72">
-        <v>1001300456946</v>
-      </c>
-      <c r="E79" s="54"/>
-      <c r="F79" s="14">
-        <f>E79</f>
+      <c r="G79" s="14"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6453</v>
+      </c>
+      <c r="B80" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="70">
+        <v>1001202506453</v>
+      </c>
+      <c r="E80" s="56"/>
+      <c r="F80" s="14">
+        <f>E80*0.5</f>
         <v>0</v>
       </c>
-      <c r="G79" s="26"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="24"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-    </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="62" t="str">
-        <f t="shared" ref="A81:A90" si="4">RIGHT(D81,4)</f>
-        <v>5738</v>
-      </c>
-      <c r="B81" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="63">
-        <v>1001061975738</v>
-      </c>
-      <c r="E81" s="54"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>4117</v>
+      </c>
+      <c r="B81" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="70">
+        <v>1001062504117</v>
+      </c>
+      <c r="E81" s="56"/>
       <c r="F81" s="14">
-        <f>E81*0.25</f>
+        <f>E81</f>
         <v>0</v>
       </c>
       <c r="G81" s="14"/>
-      <c r="H81" s="20"/>
+      <c r="H81" s="15"/>
       <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>5708</v>
-      </c>
-      <c r="B82" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="63">
-        <v>1001063145708</v>
-      </c>
-      <c r="E82" s="54"/>
+      <c r="A82" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>5681</v>
+      </c>
+      <c r="B82" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="70">
+        <v>1001190765681</v>
+      </c>
+      <c r="E82" s="56"/>
       <c r="F82" s="14">
-        <f>E82*1</f>
+        <f>E82*0.15</f>
         <v>0</v>
       </c>
       <c r="G82" s="14"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>4993</v>
-      </c>
-      <c r="B83" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="63">
-        <v>1001060764993</v>
-      </c>
-      <c r="E83" s="54"/>
+      <c r="A83" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>5739</v>
+      </c>
+      <c r="B83" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="70">
+        <v>1001062475739</v>
+      </c>
+      <c r="E83" s="56"/>
       <c r="F83" s="14">
         <f>E83*0.25</f>
         <v>0</v>
       </c>
       <c r="G83" s="14"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="24"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>6453</v>
-      </c>
-      <c r="B84" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" s="72">
-        <v>1001202506453</v>
-      </c>
-      <c r="E84" s="54"/>
+      <c r="A84" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>1146</v>
+      </c>
+      <c r="B84" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="70">
+        <v>1001061971146</v>
+      </c>
+      <c r="E84" s="56"/>
       <c r="F84" s="14">
-        <f>E84*0.5</f>
+        <f>E84*1</f>
         <v>0</v>
       </c>
-      <c r="G84" s="14"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="24"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>4117</v>
-      </c>
-      <c r="B85" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" s="63">
-        <v>1001062504117</v>
-      </c>
-      <c r="E85" s="54"/>
+      <c r="A85" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>4154</v>
+      </c>
+      <c r="B85" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="70">
+        <v>1001062474154</v>
+      </c>
+      <c r="E85" s="56"/>
       <c r="F85" s="14">
-        <f>E85</f>
+        <f>E85*1</f>
         <v>0</v>
       </c>
-      <c r="G85" s="14"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="20"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>5681</v>
-      </c>
-      <c r="B86" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="63">
-        <v>1001190765681</v>
-      </c>
-      <c r="E86" s="54"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="24"/>
+    </row>
+    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6835</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="65">
+        <v>1001203146835</v>
+      </c>
+      <c r="E86" s="56"/>
       <c r="F86" s="14">
-        <f>E86*0.15</f>
+        <f>E86*0.1</f>
         <v>0</v>
       </c>
-      <c r="G86" s="14"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>5739</v>
-      </c>
-      <c r="B87" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="63">
-        <v>1001062475739</v>
-      </c>
-      <c r="E87" s="54"/>
-      <c r="F87" s="14">
-        <f>E87*0.25</f>
+      <c r="G86" s="26"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="24"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="35"/>
+      <c r="B87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>3215</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="65">
+        <v>1001094053215</v>
+      </c>
+      <c r="E88" s="56"/>
+      <c r="F88" s="14">
+        <f>E88</f>
         <v>0</v>
       </c>
-      <c r="G87" s="14"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="24"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>1146</v>
-      </c>
-      <c r="B88" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="72">
-        <v>1001061971146</v>
-      </c>
-      <c r="E88" s="54"/>
-      <c r="F88" s="14">
-        <f>E88*1</f>
+      <c r="G88" s="14"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="24"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>5452</v>
+      </c>
+      <c r="B89" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="65">
+        <v>1001092485452</v>
+      </c>
+      <c r="E89" s="56"/>
+      <c r="F89" s="14">
+        <f>E89*0.4</f>
         <v>0</v>
       </c>
-      <c r="G88" s="26"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="24"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>4154</v>
-      </c>
-      <c r="B89" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="72">
-        <v>1001062474154</v>
-      </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="14">
-        <f>E89*1</f>
+      <c r="G89" s="14"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="24"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+    </row>
+    <row r="91" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>5074</v>
+      </c>
+      <c r="B91" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="70">
+        <v>1001080345074</v>
+      </c>
+      <c r="E91" s="56"/>
+      <c r="F91" s="14">
+        <f>E91*0.3</f>
         <v>0</v>
       </c>
-      <c r="G89" s="26"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="24"/>
-    </row>
-    <row r="90" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>6835</v>
-      </c>
-      <c r="B90" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="63">
-        <v>1001203146835</v>
-      </c>
-      <c r="E90" s="54"/>
-      <c r="F90" s="14">
-        <f>E90*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="26"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="24"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
-      <c r="B91" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="62" t="str">
-        <f t="shared" ref="A92:A99" si="5">RIGHT(D92,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B92" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="C92" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="63">
-        <v>1001094053215</v>
-      </c>
-      <c r="E92" s="54"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="16"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>6207</v>
+      </c>
+      <c r="B92" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="70">
+        <v>1001083446207</v>
+      </c>
+      <c r="E92" s="56"/>
       <c r="F92" s="14">
-        <f>E92</f>
+        <f>E92*0.3</f>
         <v>0</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
-      <c r="I92" s="24"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>5452</v>
-      </c>
-      <c r="B93" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="C93" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" s="63">
-        <v>1001092485452</v>
-      </c>
-      <c r="E93" s="54"/>
+      <c r="I92" s="16"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7089</v>
+      </c>
+      <c r="B93" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="70">
+        <v>1001084217089</v>
+      </c>
+      <c r="E93" s="56"/>
       <c r="F93" s="14">
-        <f>E93*0.4</f>
+        <f>E93*0.3</f>
         <v>0</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
-      <c r="I93" s="24"/>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="35" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-    </row>
-    <row r="95" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>5074</v>
-      </c>
-      <c r="B95" s="62" t="s">
+      <c r="I93" s="16"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7187</v>
+      </c>
+      <c r="B94" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="63">
-        <v>1001080345074</v>
-      </c>
-      <c r="E95" s="54"/>
+      <c r="C94" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="70">
+        <v>1001085637187</v>
+      </c>
+      <c r="E94" s="56"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="16"/>
+    </row>
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>7104</v>
+      </c>
+      <c r="B95" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="70">
+        <v>1001223297104</v>
+      </c>
+      <c r="E95" s="56"/>
       <c r="F95" s="14">
-        <f>E95*0.3</f>
+        <f>E95*0.18</f>
         <v>0</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>6207</v>
-      </c>
-      <c r="B96" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="63">
-        <v>1001083446207</v>
-      </c>
-      <c r="E96" s="54"/>
-      <c r="F96" s="14">
-        <f>E96*0.3</f>
+    <row r="96" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="58">
+        <f>SUM(E10:E95)</f>
         <v>0</v>
       </c>
-      <c r="G96" s="14"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="16"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>7089</v>
-      </c>
-      <c r="B97" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="63">
-        <v>1001084217089</v>
-      </c>
-      <c r="E97" s="54"/>
-      <c r="F97" s="14">
-        <f>E97*0.3</f>
+      <c r="F96" s="28">
+        <f>SUM(F10:F95)</f>
         <v>0</v>
       </c>
-      <c r="G97" s="14"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="16"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>7187</v>
-      </c>
-      <c r="B98" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="72">
-        <v>1001085637187</v>
-      </c>
-      <c r="E98" s="54"/>
-      <c r="F98" s="14">
-        <f>E98*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="14"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="16"/>
-    </row>
-    <row r="99" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>7104</v>
-      </c>
-      <c r="B99" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="C99" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" s="72">
-        <v>1001223297104</v>
-      </c>
-      <c r="E99" s="54"/>
-      <c r="F99" s="14">
-        <f>E99*0.18</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="14"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="16"/>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="56">
-        <f>SUM(E10:E99)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="28">
-        <f>SUM(F10:F99)</f>
-        <v>0</v>
-      </c>
-      <c r="G100" s="37"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="29"/>
-    </row>
-    <row r="101" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G96" s="37"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="29"/>
+    </row>
+    <row r="97" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="30"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="60"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B98" s="30"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="34"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99" s="30"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="34"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="30"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="34"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="30"/>
       <c r="C101" s="31"/>
       <c r="D101" s="31"/>
-      <c r="F101" s="59"/>
+      <c r="F101" s="32"/>
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
-      <c r="I101" s="58"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I101" s="34"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="30"/>
       <c r="C102" s="31"/>
       <c r="D102" s="31"/>
-      <c r="F102" s="59"/>
+      <c r="F102" s="32"/>
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
       <c r="I102" s="34"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" s="30"/>
       <c r="C103" s="31"/>
       <c r="D103" s="31"/>
-      <c r="F103" s="59"/>
+      <c r="F103" s="32"/>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
       <c r="I103" s="34"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" s="30"/>
       <c r="C104" s="31"/>
       <c r="D104" s="31"/>
@@ -3788,7 +3842,7 @@
       <c r="H104" s="33"/>
       <c r="I104" s="34"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" s="30"/>
       <c r="C105" s="31"/>
       <c r="D105" s="31"/>
@@ -3797,7 +3851,7 @@
       <c r="H105" s="33"/>
       <c r="I105" s="34"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" s="30"/>
       <c r="C106" s="31"/>
       <c r="D106" s="31"/>
@@ -3806,7 +3860,7 @@
       <c r="H106" s="33"/>
       <c r="I106" s="34"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="30"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
@@ -3815,7 +3869,7 @@
       <c r="H107" s="33"/>
       <c r="I107" s="34"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" s="30"/>
       <c r="C108" s="31"/>
       <c r="D108" s="31"/>
@@ -3824,7 +3878,7 @@
       <c r="H108" s="33"/>
       <c r="I108" s="34"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" s="30"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
@@ -3833,7 +3887,7 @@
       <c r="H109" s="33"/>
       <c r="I109" s="34"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" s="30"/>
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
@@ -3842,7 +3896,7 @@
       <c r="H110" s="33"/>
       <c r="I110" s="34"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" s="30"/>
       <c r="C111" s="31"/>
       <c r="D111" s="31"/>
@@ -3851,7 +3905,7 @@
       <c r="H111" s="33"/>
       <c r="I111" s="34"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="30"/>
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
@@ -17432,51 +17486,18 @@
       <c r="H1620" s="33"/>
       <c r="I1620" s="34"/>
     </row>
-    <row r="1621" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1621" s="30"/>
-      <c r="C1621" s="31"/>
-      <c r="D1621" s="31"/>
-      <c r="F1621" s="32"/>
-      <c r="G1621" s="33"/>
-      <c r="H1621" s="33"/>
-      <c r="I1621" s="34"/>
-    </row>
-    <row r="1622" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1622" s="30"/>
-      <c r="C1622" s="31"/>
-      <c r="D1622" s="31"/>
-      <c r="F1622" s="32"/>
-      <c r="G1622" s="33"/>
-      <c r="H1622" s="33"/>
-      <c r="I1622" s="34"/>
-    </row>
-    <row r="1623" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1623" s="30"/>
-      <c r="C1623" s="31"/>
-      <c r="D1623" s="31"/>
-      <c r="F1623" s="32"/>
-      <c r="G1623" s="33"/>
-      <c r="H1623" s="33"/>
-      <c r="I1623" s="34"/>
-    </row>
-    <row r="1624" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1624" s="30"/>
-      <c r="C1624" s="31"/>
-      <c r="D1624" s="31"/>
-      <c r="F1624" s="32"/>
-      <c r="G1624" s="33"/>
-      <c r="H1624" s="33"/>
-      <c r="I1624" s="34"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A9:I102" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:I98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F54 F71 F73 F21" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -2,16 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F8B594-EBC5-4D5B-AC5C-195AC36DFBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6E63EA-A72C-4C28-B0C4-726FCF08BD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="машины" sheetId="21" r:id="rId1"/>
+    <sheet name="машины" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$101</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -26,12 +31,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="112">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
   <si>
+    <t>OOO "MOS PROD TORG"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата отгрузки с ОМПК: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Доставка: </t>
+  </si>
+  <si>
+    <t>Самовывоз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Место отгрузки: </t>
+  </si>
+  <si>
+    <t>г. Москва, Огородный проезд, д. 18 стр. 18</t>
   </si>
   <si>
     <t xml:space="preserve">Ответственные: </t>
@@ -40,10 +60,16 @@
     <t xml:space="preserve">Москва :  </t>
   </si>
   <si>
+    <t>тел: 8 (495) 980-53-93, доб. 39-06</t>
+  </si>
+  <si>
     <t>ЗАКАЗ</t>
   </si>
   <si>
     <t>Тип заказа:</t>
+  </si>
+  <si>
+    <t>ZOR</t>
   </si>
   <si>
     <t>Название материала</t>
@@ -58,187 +84,64 @@
     <t>Заказ кг/шт</t>
   </si>
   <si>
+    <t>Вес нетто,  кг</t>
+  </si>
+  <si>
+    <t>Вес нетто короба,      кг</t>
+  </si>
+  <si>
+    <t>Срок реализации, суток</t>
+  </si>
+  <si>
     <t>Примечание</t>
   </si>
   <si>
     <t>Вареные колбасы</t>
   </si>
   <si>
-    <t>Сосиски</t>
+    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.35 кг</t>
   </si>
   <si>
-    <t>Сардельки</t>
+    <t>ШТ</t>
   </si>
   <si>
-    <t>Полукопченые колбасы</t>
-  </si>
-  <si>
-    <t>Варенокопченые колбасы</t>
-  </si>
-  <si>
-    <t>Ветчины</t>
-  </si>
-  <si>
-    <t>ВСЕГО:</t>
+    <t>КЛАССИЧЕСКАЯ Коровино вар п/о(обвязка)</t>
   </si>
   <si>
     <t>КГ</t>
   </si>
   <si>
-    <t>ШТ</t>
+    <t>РУССКАЯ ПРЕМИУМ ПМ вар ф/о в/у</t>
   </si>
   <si>
-    <t>Сырокопченые колбасы</t>
+    <t>ДОКТОРСКАЯ ПРЕМИУМ вар б/о мгс_30с</t>
   </si>
   <si>
-    <t>Копчености варенокопченые</t>
+    <t>ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.</t>
   </si>
   <si>
-    <t xml:space="preserve">Дата отгрузки с ОМПК: </t>
-  </si>
-  <si>
-    <t>Срок реализации, суток</t>
-  </si>
-  <si>
-    <t>Вес нетто короба,      кг</t>
-  </si>
-  <si>
-    <t>Вес нетто,  кг</t>
-  </si>
-  <si>
-    <t>ZOR</t>
+    <t>МЯСНАЯ Папа может вар п/о 0.4кг_СНГ</t>
   </si>
   <si>
     <t>МЯСНАЯ Папа может вар п/о_СНГ</t>
   </si>
   <si>
-    <t>ФИЛЕЙНАЯ Папа может вар п/о_СНГ</t>
+    <t>МЯСНАЯ СО ШПИКОМ Папа может вар п/о_СНГ</t>
   </si>
   <si>
-    <t>КАРБОНAД СТОЛИЧНЫЙ ПМ к/в кр/к в/у_СНГ</t>
+    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.5кг 8шт.</t>
   </si>
   <si>
-    <t>тел: 8 (495) 980-53-93, доб. 39-06</t>
+    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.5кг_СНГ</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНАЯ Папа может вар п/о_СНГ</t>
   </si>
   <si>
     <t>ЭКСТРА Папа может вар п/о 0.4кг_СНГ</t>
   </si>
   <si>
-    <t>МЯСНАЯ Папа может вар п/о 0.4кг_СНГ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Место отгрузки: </t>
-  </si>
-  <si>
-    <t>АРОМАТНАЯ Папа может с/к в/у 1/250_СНГ</t>
-  </si>
-  <si>
-    <t>ЮБИЛЕЙНАЯ Папа может с/к в/у 1/250_СНГ</t>
-  </si>
-  <si>
-    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/150_СНГ_60с</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
-  </si>
-  <si>
-    <t>БАВАРСКИЕ ПМ сос ц/о мгс 0.35кг 8шт.</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 0.3кг</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/250*8_120с</t>
-  </si>
-  <si>
-    <t>ОКОРОК КОПЧЕНЫЙ к/в мл/к в/у 0.3кг_СНГ</t>
-  </si>
-  <si>
-    <t>СВИНИНА ПО-ДОМАШ. к/в мл/к в/у 0.3кг_СНГ</t>
-  </si>
-  <si>
-    <t>КЛАССИЧЕСКАЯ Коровино вар п/о(обвязка)</t>
-  </si>
-  <si>
-    <t>КОПЧЕНЫЕ сос п/о мгс 0.45кг 7шт.</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 0.6кг</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сар б/о мгс 1*3_СНГ</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ сар б/о мгс 1*3 Ашан 45с</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0.31кг</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ОРЕХОВЫЙ ПМ в/к в/у 0.31кг 8шт.</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ С АРОМ.ТРАВАМИ в/к в/у 0.31кг</t>
-  </si>
-  <si>
-    <t>ПОСОЛЬСКАЯ Папа может с/к в/у</t>
-  </si>
-  <si>
-    <t>ЭКСТРА Папа может с/к в/у_Л</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.МЯСНАЯ Папа может п/о 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.МЯСНАЯ Папа может п/о</t>
-  </si>
-  <si>
-    <t>ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</t>
-  </si>
-  <si>
-    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3_Маяк</t>
-  </si>
-  <si>
-    <t>ПОСОЛЬСКАЯ ПМ с/к с/н в/у 1/100 10шт_СНГ</t>
-  </si>
-  <si>
-    <t>МЯСНАЯ СО ШПИКОМ Папа может вар п/о_СНГ</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ ПМ сос п/о мгс 1*3_СНГ_45с</t>
-  </si>
-  <si>
-    <t>Самовывоз</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.35 кг</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</t>
-  </si>
-  <si>
-    <t>РУССКАЯ ПРЕМИУМ ПМ вар ф/о в/у</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ГОСТ сос ц/о мгс 0.4кг 7шт.</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ ПРЕМИУМ вар б/о мгс_30с</t>
+    <t>ЭКСТРА Папа может вар п/о</t>
   </si>
   <si>
     <t>ДОКТОРСКАЯ ГОСТ вар п/о</t>
@@ -259,6 +162,9 @@
     <t>В ОБВЯЗКЕ СО ШПИКОМ вар п/о</t>
   </si>
   <si>
+    <t>Сосиски</t>
+  </si>
+  <si>
     <t>РУБЛЕНЫЕ сос ц/о мгс 0.36кг 6шт.</t>
   </si>
   <si>
@@ -268,13 +174,37 @@
     <t>ИСПАНСКИЕ сос ц/о мгс 0.41кг 6шт.</t>
   </si>
   <si>
-    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
+    <t>БАВАРСКИЕ ПМ сос ц/о мгс 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
+  </si>
+  <si>
+    <t>КОПЧЕНЫЕ сос п/о мгс 0.45кг 7шт.</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт_СНГ</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 0.6кг</t>
   </si>
   <si>
     <t>МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О_50с</t>
   </si>
   <si>
+    <t>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
     <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг_50с</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 1.5*4</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ГОСТ сос ц/о мгс 0.4кг 7шт.</t>
   </si>
   <si>
     <t>СОЧНЫЕ ПМ сос п/о в/у 1/350 8шт_50с</t>
@@ -286,10 +216,79 @@
     <t>СОЧНЫЕ ПМ сос п/о мгс 1.5*4_А_50с</t>
   </si>
   <si>
+    <t>МЯСНЫЕ ПМ сос п/о мгс 1*3_СНГ_45с</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0.72*4</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 1.5*2</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</t>
+  </si>
+  <si>
+    <t>Сардельки</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сар б/о мгс 1*3_СНГ</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ С БЕК. п/о мгс 0.3кг_60с</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ сар б/о мгс 1*3 Ашан 45с</t>
+  </si>
+  <si>
+    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3_Маяк</t>
+  </si>
+  <si>
+    <t>Полукопченые колбасы</t>
+  </si>
+  <si>
+    <t>БОЯNСКАЯ Папа может п/к в/у 0.28кг_СНГ</t>
+  </si>
+  <si>
+    <t>САЛЯМИ Папа может п/к в/у 0.28кг_209к</t>
+  </si>
+  <si>
+    <t>ЧЕСНОЧНАЯ Папа может п/к в/у 0.35кг СНГ</t>
+  </si>
+  <si>
+    <t>Варенокопченые колбасы</t>
+  </si>
+  <si>
     <t>СЕРВЕЛАТ КОПЧ.НА БУКЕ в/к в/у 0.35кг_СНГ</t>
   </si>
   <si>
+    <t>СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/у_СНГ</t>
+  </si>
+  <si>
     <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ вк в/у 0.28кг_СНГ</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0.31кг</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОРЕХОВЫЙ ПМ в/к в/у 0.31кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ С АРОМ.ТРАВАМИ в/к в/у 0.31кг</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у 0.35кг_СНГ</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ</t>
   </si>
   <si>
     <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у_СНГ</t>
@@ -301,43 +300,34 @@
     <t>СЕРВЕЛАТ ФИНСКИЙ в/к в/у_СНГ</t>
   </si>
   <si>
-    <t>БОЯNСКАЯ Папа может п/к в/у 0.28кг_СНГ</t>
-  </si>
-  <si>
-    <t>САЛЯМИ Папа может п/к в/у 0.28кг_209к</t>
-  </si>
-  <si>
-    <t>ЧЕСНОЧНАЯ Папа может п/к в/у 0.35кг СНГ</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/у_СНГ</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у 0.35кг_СНГ</t>
+    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
   </si>
   <si>
     <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.84кг</t>
   </si>
   <si>
-    <t>БЕКОН Останкино с/к с/н в/у 1/180_СНГ_50</t>
+    <t>Сырокопченые колбасы</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ Папа может с/к в/у 1/250_СНГ</t>
+  </si>
+  <si>
+    <t>ПОСОЛЬСКАЯ Папа может с/к в/у</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/250*8_120с</t>
   </si>
   <si>
     <t>ЭКСТРА Папа может с/к с/н в/у 1/100 14шт</t>
   </si>
   <si>
-    <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 1.5*2</t>
+    <t>ЭКСТРА Папа может с/к в/у_Л</t>
   </si>
   <si>
-    <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0.72*4</t>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/150_СНГ_60с</t>
   </si>
   <si>
-    <t>МОЛОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт_СНГ</t>
-  </si>
-  <si>
-    <t>OOO "MOS PROD TORG"</t>
-  </si>
-  <si>
-    <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг_50с</t>
+    <t>ЮБИЛЕЙНАЯ Папа может с/к в/у 1/250_СНГ</t>
   </si>
   <si>
     <t>АРОМАТНАЯ с/к в/у</t>
@@ -346,16 +336,37 @@
     <t>ЮБИЛЕЙНАЯ с/к в/у_Л</t>
   </si>
   <si>
-    <t>МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 1.5*4</t>
+    <t>ПОСОЛЬСКАЯ ПМ с/к с/н в/у 1/100 10шт_СНГ</t>
   </si>
   <si>
-    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.5кг 8шт.</t>
+    <t>Ветчины</t>
   </si>
   <si>
-    <t>ЭКСТРА Папа может вар п/о</t>
+    <t>ВЕТЧ.МЯСНАЯ Папа может п/о 0.4кг 8шт.</t>
   </si>
   <si>
-    <t>г. Москва, Огородный проезд, д. 18 стр. 18</t>
+    <t>ВЕТЧ.МЯСНАЯ Папа может п/о</t>
+  </si>
+  <si>
+    <t>Копчености варенокопченые</t>
+  </si>
+  <si>
+    <t>КАРБОНAД СТОЛИЧНЫЙ ПМ к/в кр/к в/у_СНГ</t>
+  </si>
+  <si>
+    <t>ОКОРОК КОПЧЕНЫЙ к/в мл/к в/у 0.3кг_СНГ</t>
+  </si>
+  <si>
+    <t>СВИНИНА ПО-ДОМАШ. к/в мл/к в/у 0.3кг_СНГ</t>
+  </si>
+  <si>
+    <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг_50с</t>
+  </si>
+  <si>
+    <t>БЕКОН Останкино с/к с/н в/у 1/180_СНГ_50</t>
+  </si>
+  <si>
+    <t>ВСЕГО:</t>
   </si>
 </sst>
 </file>
@@ -589,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -749,19 +760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="21"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="21"/>
-      </top>
-      <bottom style="double">
-        <color indexed="21"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="double">
@@ -788,16 +786,16 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="19" fillId="2" borderId="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="19" fillId="2" borderId="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -808,7 +806,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -842,7 +840,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -852,7 +850,7 @@
     <xf numFmtId="2" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,10 +859,10 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,13 +896,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -929,7 +926,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -995,40 +992,25 @@
     <xf numFmtId="1" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="SAPBEXstdItem" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="SAPBEXstdItem 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="SAPBEXstdItem 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Обычный 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1066,7 +1048,7 @@
         <xdr:cNvPr id="25672" name="Picture 7406">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2A341E-202A-4183-87CB-ACD939268CFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048640000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,23 +1057,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FDFDFD"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FDFDFD">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect r="19516"/>
         <a:stretch>
           <a:fillRect/>
@@ -1108,26 +1074,8 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1150,7 +1098,7 @@
         <xdr:cNvPr id="25673" name="Picture 7406">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9416CC9C-2C54-4DC1-B572-E9F84A846EB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049640000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,23 +1107,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FDFDFD"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FDFDFD">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect r="19516"/>
         <a:stretch>
           <a:fillRect/>
@@ -1192,26 +1124,8 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1234,7 +1148,7 @@
         <xdr:cNvPr id="25674" name="Picture 7406">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D531FDAE-0C88-404E-B86E-52AC014AFF02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A640000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,23 +1157,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FDFDFD"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FDFDFD">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect r="19516"/>
         <a:stretch>
           <a:fillRect/>
@@ -1276,26 +1174,8 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1627,173 +1507,142 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R1620"/>
+  <dimension ref="A1:R1623"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K103" sqref="K103"/>
+      <pane ySplit="9" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="47" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="59" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="58" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="7" customWidth="1"/>
     <col min="7" max="8" width="11.5703125" style="8" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" style="68" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="67" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="12" max="12" width="9.140625" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40">
+      <c r="D1" s="39">
         <v>130500100</v>
       </c>
-      <c r="E1" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="43">
+      <c r="E1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="42">
         <v>45930</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-    </row>
-    <row r="4" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="38"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="42" t="s">
+      <c r="E3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="1:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="46" t="s">
+      <c r="F3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="42" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
+    </row>
+    <row r="4" spans="1:18" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="F4" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:18" s="12" customFormat="1" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="69"/>
+        <v>20</v>
+      </c>
+      <c r="J9" s="68"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1803,34 +1652,34 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="55"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="13"/>
       <c r="G10" s="21"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:18" s="17" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="str">
+    <row r="11" spans="1:18" s="17" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="63" t="str">
         <f>RIGHT(D11,4)</f>
         <v>7231</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>65</v>
+      <c r="B11" s="63" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="65">
+        <v>23</v>
+      </c>
+      <c r="D11" s="64">
         <v>1001013957231</v>
       </c>
-      <c r="E11" s="56"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="14">
         <f>E11*0.35</f>
         <v>0</v>
@@ -1838,7 +1687,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="68"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -1849,20 +1698,20 @@
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="str">
-        <f t="shared" ref="A12:A21" si="0">RIGHT(D12,4)</f>
+      <c r="A12" s="63" t="str">
+        <f>RIGHT(D12,4)</f>
         <v>6859</v>
       </c>
-      <c r="B12" s="64" t="s">
-        <v>46</v>
+      <c r="B12" s="63" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="65">
+        <v>25</v>
+      </c>
+      <c r="D12" s="64">
         <v>1001013956859</v>
       </c>
-      <c r="E12" s="56"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="14">
         <f>E12</f>
         <v>0</v>
@@ -1870,7 +1719,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="68"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -1881,20 +1730,20 @@
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67" t="str">
-        <f t="shared" si="0"/>
+      <c r="A13" s="66" t="str">
+        <f>RIGHT(D13,4)</f>
         <v>5247</v>
       </c>
-      <c r="B13" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="70">
+      <c r="B13" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="69">
         <v>1001010855247</v>
       </c>
-      <c r="E13" s="56"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="14">
         <f>E13*1</f>
         <v>0</v>
@@ -1902,7 +1751,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="68"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1913,19 +1762,19 @@
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66">
+      <c r="A14" s="65">
         <v>5246</v>
       </c>
-      <c r="B14" s="64" t="s">
-        <v>70</v>
+      <c r="B14" s="63" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="65">
+        <v>25</v>
+      </c>
+      <c r="D14" s="64">
         <v>1001010105246</v>
       </c>
-      <c r="E14" s="56"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="14">
         <f>E14*1</f>
         <v>0</v>
@@ -1933,7 +1782,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="68"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -1944,19 +1793,19 @@
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66">
+      <c r="A15" s="65">
         <v>6325</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>68</v>
+      <c r="B15" s="63" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="65">
+        <v>23</v>
+      </c>
+      <c r="D15" s="64">
         <v>1001010106325</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="14">
         <f>E15*0.4</f>
         <v>0</v>
@@ -1964,7 +1813,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="68"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1975,20 +1824,20 @@
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="str">
-        <f t="shared" si="0"/>
+      <c r="A16" s="63" t="str">
+        <f t="shared" ref="A16:A29" si="0">RIGHT(D16,4)</f>
         <v>6334</v>
       </c>
-      <c r="B16" s="64" t="s">
-        <v>32</v>
+      <c r="B16" s="63" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="65">
+        <v>23</v>
+      </c>
+      <c r="D16" s="64">
         <v>1001012486334</v>
       </c>
-      <c r="E16" s="56"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="14">
         <f>E16*0.4</f>
         <v>0</v>
@@ -1998,20 +1847,20 @@
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="str">
+      <c r="A17" s="63" t="str">
         <f t="shared" si="0"/>
         <v>4405</v>
       </c>
-      <c r="B17" s="64" t="s">
-        <v>27</v>
+      <c r="B17" s="63" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="65">
+        <v>25</v>
+      </c>
+      <c r="D17" s="64">
         <v>1001012484405</v>
       </c>
-      <c r="E17" s="56"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="14">
         <f>E17</f>
         <v>0</v>
@@ -2021,20 +1870,20 @@
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="str">
+      <c r="A18" s="63" t="str">
         <f t="shared" si="0"/>
         <v>4408</v>
       </c>
-      <c r="B18" s="64" t="s">
-        <v>61</v>
+      <c r="B18" s="63" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="65">
+        <v>25</v>
+      </c>
+      <c r="D18" s="64">
         <v>1001012634408</v>
       </c>
-      <c r="E18" s="56"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="14">
         <f>E18</f>
         <v>0</v>
@@ -2044,20 +1893,20 @@
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="str">
+      <c r="A19" s="63" t="str">
         <f t="shared" si="0"/>
         <v>6345</v>
       </c>
-      <c r="B19" s="64" t="s">
-        <v>107</v>
+      <c r="B19" s="63" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="65">
+        <v>23</v>
+      </c>
+      <c r="D19" s="64">
         <v>1001012566345</v>
       </c>
-      <c r="E19" s="56"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="14">
         <f>E19*0.5</f>
         <v>0</v>
@@ -2065,7 +1914,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="68"/>
+      <c r="J19" s="67"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -2075,46 +1924,55 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="str">
+    <row r="20" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>6346</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="64">
+        <v>1001012566346</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="14">
+        <f>E20*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="63" t="str">
         <f t="shared" si="0"/>
         <v>4335</v>
       </c>
-      <c r="B20" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="65">
+      <c r="B21" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="64">
         <v>1001012564335</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="14">
-        <f>E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v>6354</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="65">
-        <v>1001012506354</v>
-      </c>
-      <c r="E21" s="56"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="14">
-        <f>E21*0.4</f>
+        <f>E21</f>
         <v>0</v>
       </c>
       <c r="G21" s="14"/>
@@ -2122,22 +1980,22 @@
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="64" t="str">
-        <f>RIGHT(D22,4)</f>
-        <v>5851</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>108</v>
+      <c r="A22" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>6354</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="65">
-        <v>1001012505851</v>
-      </c>
-      <c r="E22" s="56"/>
+        <v>23</v>
+      </c>
+      <c r="D22" s="64">
+        <v>1001012506354</v>
+      </c>
+      <c r="E22" s="55"/>
       <c r="F22" s="14">
-        <f>E22</f>
+        <f>E22*0.4</f>
         <v>0</v>
       </c>
       <c r="G22" s="14"/>
@@ -2145,21 +2003,21 @@
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="64" t="str">
-        <f t="shared" ref="A23:A28" si="1">RIGHT(D23,4)</f>
-        <v>4555</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>71</v>
+      <c r="A23" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>5851</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="65">
-        <v>1001010014555</v>
-      </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="71">
+        <v>25</v>
+      </c>
+      <c r="D23" s="64">
+        <v>1001012505851</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="14">
         <f>E23</f>
         <v>0</v>
       </c>
@@ -2168,21 +2026,21 @@
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>6327</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>72</v>
+      <c r="A24" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>4555</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>37</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="65">
-        <v>1001010116327</v>
-      </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="71">
+        <v>25</v>
+      </c>
+      <c r="D24" s="64">
+        <v>1001010014555</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="70">
         <f>E24</f>
         <v>0</v>
       </c>
@@ -2191,21 +2049,21 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>6861</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>73</v>
+      <c r="A25" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>6327</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>38</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="65">
-        <v>1001015646861</v>
-      </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="71">
+        <v>25</v>
+      </c>
+      <c r="D25" s="64">
+        <v>1001010116327</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="70">
         <f>E25</f>
         <v>0</v>
       </c>
@@ -2214,22 +2072,22 @@
       <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>6268</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>74</v>
+      <c r="A26" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>6861</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>39</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="65">
-        <v>1001012426268</v>
-      </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="71">
-        <f>E26*0.4</f>
+        <v>25</v>
+      </c>
+      <c r="D26" s="64">
+        <v>1001015646861</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="70">
+        <f>E26</f>
         <v>0</v>
       </c>
       <c r="G26" s="14"/>
@@ -2237,44 +2095,44 @@
       <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>6877</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>75</v>
+      <c r="A27" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>6268</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="65">
-        <v>1001015676877</v>
-      </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="71">
-        <f>E27</f>
+        <v>23</v>
+      </c>
+      <c r="D27" s="64">
+        <v>1001012426268</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="70">
+        <f>E27*0.4</f>
         <v>0</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>6878</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>76</v>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>6877</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="65">
-        <v>1001015686878</v>
-      </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="71">
+        <v>25</v>
+      </c>
+      <c r="D28" s="64">
+        <v>1001015676877</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="70">
         <f>E28</f>
         <v>0</v>
       </c>
@@ -2282,59 +2140,59 @@
       <c r="H28" s="15"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="1"/>
+    <row r="29" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>6878</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="64">
+        <v>1001015686878</v>
+      </c>
       <c r="E29" s="55"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="str">
-        <f>RIGHT(D30,4)</f>
+      <c r="F29" s="70">
+        <f>E29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="63" t="str">
+        <f t="shared" ref="A31:A43" si="1">RIGHT(D31,4)</f>
         <v>6765</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="65">
+      <c r="B31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="64">
         <v>1001023696765</v>
       </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="19">
-        <f>E30*0.36</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="64" t="str">
-        <f>RIGHT(D31,4)</f>
-        <v>6768</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="65">
-        <v>1001025176768</v>
-      </c>
-      <c r="E31" s="56"/>
+      <c r="E31" s="55"/>
       <c r="F31" s="19">
-        <f>E31*0.41</f>
+        <f>E31*0.36</f>
         <v>0</v>
       </c>
       <c r="G31" s="14"/>
@@ -2342,20 +2200,20 @@
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="str">
-        <f>RIGHT(D32,4)</f>
-        <v>6770</v>
+      <c r="A32" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>6768</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="65">
-        <v>1001025486770</v>
-      </c>
-      <c r="E32" s="56"/>
+        <v>45</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="64">
+        <v>1001025176768</v>
+      </c>
+      <c r="E32" s="55"/>
       <c r="F32" s="19">
         <f>E32*0.41</f>
         <v>0</v>
@@ -2365,22 +2223,22 @@
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="64" t="str">
-        <f>RIGHT(D33,4)</f>
-        <v>6602</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="65">
-        <v>1001021966602</v>
-      </c>
-      <c r="E33" s="56"/>
+      <c r="A33" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>6770</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="64">
+        <v>1001025486770</v>
+      </c>
+      <c r="E33" s="55"/>
       <c r="F33" s="19">
-        <f>E33*0.35</f>
+        <f>E33*0.41</f>
         <v>0</v>
       </c>
       <c r="G33" s="14"/>
@@ -2388,22 +2246,22 @@
       <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="64" t="str">
-        <f t="shared" ref="A34:A95" si="2">RIGHT(D34,4)</f>
-        <v>6713</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="70">
-        <v>1001022246713</v>
-      </c>
-      <c r="E34" s="56"/>
+      <c r="A34" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>6602</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="64">
+        <v>1001021966602</v>
+      </c>
+      <c r="E34" s="55"/>
       <c r="F34" s="19">
-        <f>E34*0.41</f>
+        <f>E34*0.35</f>
         <v>0</v>
       </c>
       <c r="G34" s="14"/>
@@ -2411,45 +2269,45 @@
       <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="64" t="str">
-        <f t="shared" si="2"/>
+      <c r="A35" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>6713</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="69">
+        <v>1001022246713</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="19">
+        <f>E35*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="63" t="str">
+        <f t="shared" si="1"/>
         <v>6240</v>
       </c>
-      <c r="B35" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="70">
+      <c r="B36" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="69">
         <v>1001022246240</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="14">
-        <f>E35*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7151</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="70">
-        <v>1001020837151</v>
-      </c>
-      <c r="E36" s="56"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="14">
-        <f>E36*0.41</f>
+        <f>E36*0.45</f>
         <v>0</v>
       </c>
       <c r="G36" s="14"/>
@@ -2457,22 +2315,22 @@
       <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6854</v>
-      </c>
-      <c r="B37" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="70">
-        <v>1001022656854</v>
-      </c>
-      <c r="E37" s="56"/>
+      <c r="A37" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>7151</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="69">
+        <v>1001020837151</v>
+      </c>
+      <c r="E37" s="55"/>
       <c r="F37" s="14">
-        <f>E37*0.6</f>
+        <f>E37*0.41</f>
         <v>0</v>
       </c>
       <c r="G37" s="14"/>
@@ -2480,45 +2338,45 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="64" t="str">
-        <f t="shared" si="2"/>
+      <c r="A38" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>6854</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="69">
+        <v>1001022656854</v>
+      </c>
+      <c r="E38" s="55"/>
+      <c r="F38" s="14">
+        <f>E38*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="63" t="str">
+        <f t="shared" si="1"/>
         <v>7075</v>
       </c>
-      <c r="B38" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="70">
+      <c r="B39" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="69">
         <v>1001022657075</v>
       </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="14">
-        <f>E38</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5819</v>
-      </c>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="70">
-        <v>1001022725819</v>
-      </c>
-      <c r="E39" s="56"/>
+      <c r="E39" s="55"/>
       <c r="F39" s="14">
-        <f>E39*0.4</f>
+        <f>E39</f>
         <v>0</v>
       </c>
       <c r="G39" s="14"/>
@@ -2526,20 +2384,20 @@
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7255</v>
-      </c>
-      <c r="B40" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="73">
-        <v>1001025507255</v>
-      </c>
-      <c r="E40" s="56"/>
+      <c r="A40" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>5819</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="69">
+        <v>1001022725819</v>
+      </c>
+      <c r="E40" s="55"/>
       <c r="F40" s="14">
         <f>E40*0.4</f>
         <v>0</v>
@@ -2549,22 +2407,22 @@
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7271</v>
-      </c>
-      <c r="B41" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="73">
-        <v>1001025507271</v>
-      </c>
-      <c r="E41" s="56"/>
+      <c r="A41" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>7255</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="72">
+        <v>1001025507255</v>
+      </c>
+      <c r="E41" s="55"/>
       <c r="F41" s="14">
-        <f>E41*1</f>
+        <f>E41*0.4</f>
         <v>0</v>
       </c>
       <c r="G41" s="14"/>
@@ -2572,21 +2430,22 @@
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="66">
-        <v>6870</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="70">
-        <v>1001022466726</v>
-      </c>
-      <c r="E42" s="56"/>
+      <c r="A42" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>7077</v>
+      </c>
+      <c r="B42" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="72">
+        <v>1001025507077</v>
+      </c>
+      <c r="E42" s="55"/>
       <c r="F42" s="14">
-        <f>E42*0.41</f>
+        <f>E42*0.4</f>
         <v>0</v>
       </c>
       <c r="G42" s="14"/>
@@ -2594,21 +2453,22 @@
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="66">
-        <v>6759</v>
-      </c>
-      <c r="B43" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="70">
-        <v>1001020836759</v>
-      </c>
-      <c r="E43" s="56"/>
+      <c r="A43" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>7271</v>
+      </c>
+      <c r="B43" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="72">
+        <v>1001025507271</v>
+      </c>
+      <c r="E43" s="55"/>
       <c r="F43" s="14">
-        <f>E43*0.4</f>
+        <f>E43*1</f>
         <v>0</v>
       </c>
       <c r="G43" s="14"/>
@@ -2616,22 +2476,21 @@
       <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7064</v>
-      </c>
-      <c r="B44" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="70">
-        <v>1001022377064</v>
-      </c>
-      <c r="E44" s="56"/>
+      <c r="A44" s="65">
+        <v>6870</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="69">
+        <v>1001022466726</v>
+      </c>
+      <c r="E44" s="55"/>
       <c r="F44" s="14">
-        <f>E44*0.35</f>
+        <f>E44*0.41</f>
         <v>0</v>
       </c>
       <c r="G44" s="14"/>
@@ -2639,22 +2498,21 @@
       <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7067</v>
-      </c>
-      <c r="B45" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="70">
-        <v>1001022377067</v>
-      </c>
-      <c r="E45" s="56"/>
+      <c r="A45" s="65">
+        <v>6759</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="69">
+        <v>1001020836759</v>
+      </c>
+      <c r="E45" s="55"/>
       <c r="F45" s="14">
-        <f>E45*0.41</f>
+        <f>E45*0.4</f>
         <v>0</v>
       </c>
       <c r="G45" s="14"/>
@@ -2662,22 +2520,22 @@
       <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7070</v>
-      </c>
-      <c r="B46" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="70">
-        <v>1001022377070</v>
-      </c>
-      <c r="E46" s="56"/>
+      <c r="A46" s="63" t="str">
+        <f t="shared" ref="A46:A52" si="2">RIGHT(D46,4)</f>
+        <v>7064</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="69">
+        <v>1001022377064</v>
+      </c>
+      <c r="E46" s="55"/>
       <c r="F46" s="14">
-        <f>E46</f>
+        <f>E46*0.35</f>
         <v>0</v>
       </c>
       <c r="G46" s="14"/>
@@ -2685,66 +2543,66 @@
       <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="64" t="str">
+      <c r="A47" s="63" t="str">
+        <f t="shared" si="2"/>
+        <v>7067</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="69">
+        <v>1001022377067</v>
+      </c>
+      <c r="E47" s="55"/>
+      <c r="F47" s="14">
+        <f>E47*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="63" t="str">
+        <f t="shared" si="2"/>
+        <v>7070</v>
+      </c>
+      <c r="B48" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="69">
+        <v>1001022377070</v>
+      </c>
+      <c r="E48" s="55"/>
+      <c r="F48" s="14">
+        <f>E48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="63" t="str">
         <f t="shared" si="2"/>
         <v>6303</v>
       </c>
-      <c r="B47" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="70">
+      <c r="B49" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="69">
         <v>1001022726303</v>
       </c>
-      <c r="E47" s="56"/>
-      <c r="F47" s="14">
-        <f>E47*1</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7244</v>
-      </c>
-      <c r="B48" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="70">
-        <v>1001022557244</v>
-      </c>
-      <c r="E48" s="56"/>
-      <c r="F48" s="14">
-        <f>E48*1</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6254</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="65">
-        <v>1001022556254</v>
-      </c>
-      <c r="E49" s="56"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="14">
         <f>E49*1</f>
         <v>0</v>
@@ -2753,105 +2611,105 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64" t="str">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>6837</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="65">
-        <v>1001022556837</v>
-      </c>
-      <c r="E50" s="56"/>
+        <v>7244</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="69">
+        <v>1001022557244</v>
+      </c>
+      <c r="E50" s="55"/>
       <c r="F50" s="14">
-        <f>E50*0.4</f>
+        <f>E50*1</f>
         <v>0</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="64" t="str">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="63" t="str">
         <f t="shared" si="2"/>
+        <v>6254</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="64">
+        <v>1001022556254</v>
+      </c>
+      <c r="E51" s="55"/>
+      <c r="F51" s="14">
+        <f>E51*1</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="26"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="63" t="str">
+        <f t="shared" si="2"/>
+        <v>6837</v>
+      </c>
+      <c r="B52" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="64">
+        <v>1001022556837</v>
+      </c>
+      <c r="E52" s="55"/>
+      <c r="F52" s="14">
+        <f>E52*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="26"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="35"/>
+      <c r="B53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="63" t="str">
+        <f t="shared" ref="A54:A59" si="3">RIGHT(D54,4)</f>
         <v>6549</v>
       </c>
-      <c r="B52" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="65">
+      <c r="B54" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="64">
         <v>1001032736549</v>
       </c>
-      <c r="E52" s="56"/>
-      <c r="F52" s="14">
-        <f>E52</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6609</v>
-      </c>
-      <c r="B53" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="70">
-        <v>1001033856609</v>
-      </c>
-      <c r="E53" s="56"/>
-      <c r="F53" s="14">
-        <f>E53*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7059</v>
-      </c>
-      <c r="B54" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="70">
-        <v>1001035277059</v>
-      </c>
-      <c r="E54" s="56"/>
+      <c r="E54" s="55"/>
       <c r="F54" s="14">
-        <f>E54*0.3</f>
+        <f>E54</f>
         <v>0</v>
       </c>
       <c r="G54" s="14"/>
@@ -2859,22 +2717,22 @@
       <c r="I54" s="23"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7058</v>
-      </c>
-      <c r="B55" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="70">
-        <v>1001035277058</v>
-      </c>
-      <c r="E55" s="56"/>
+      <c r="A55" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v>6609</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="69">
+        <v>1001033856609</v>
+      </c>
+      <c r="E55" s="55"/>
       <c r="F55" s="14">
-        <f>E55</f>
+        <f>E55*0.4</f>
         <v>0</v>
       </c>
       <c r="G55" s="14"/>
@@ -2882,209 +2740,209 @@
       <c r="I55" s="23"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6548</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="65">
-        <v>1001031076548</v>
-      </c>
-      <c r="E56" s="56"/>
+      <c r="A56" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v>7059</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="69">
+        <v>1001035277059</v>
+      </c>
+      <c r="E56" s="55"/>
       <c r="F56" s="14">
-        <f>E56</f>
+        <f>E56*0.3</f>
         <v>0</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5698</v>
-      </c>
-      <c r="B57" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="65">
-        <v>1001034065698</v>
-      </c>
-      <c r="E57" s="56"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v>7058</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="69">
+        <v>1001035277058</v>
+      </c>
+      <c r="E57" s="55"/>
       <c r="F57" s="14">
         <f>E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="26"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-    </row>
-    <row r="59" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="64" t="str">
-        <f t="shared" si="2"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v>6548</v>
+      </c>
+      <c r="B58" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="64">
+        <v>1001031076548</v>
+      </c>
+      <c r="E58" s="55"/>
+      <c r="F58" s="14">
+        <f>E58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v>5698</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="64">
+        <v>1001034065698</v>
+      </c>
+      <c r="E59" s="55"/>
+      <c r="F59" s="14">
+        <f>E59</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="26"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="63" t="str">
+        <f>RIGHT(D61,4)</f>
         <v>7174</v>
       </c>
-      <c r="B59" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="70">
+      <c r="B61" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="69">
         <v>1001302277174</v>
       </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="14">
-        <f>E59*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7241</v>
-      </c>
-      <c r="B60" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="70">
-        <v>1001303107241</v>
-      </c>
-      <c r="E60" s="56"/>
-      <c r="F60" s="14">
-        <f>E60*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-    </row>
-    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7176</v>
-      </c>
-      <c r="B61" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="70">
-        <v>1001302347176</v>
-      </c>
-      <c r="E61" s="56"/>
+      <c r="E61" s="55"/>
       <c r="F61" s="14">
-        <f>E61*0.35</f>
+        <f>E61*0.28</f>
         <v>0</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-    </row>
-    <row r="63" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7158</v>
-      </c>
-      <c r="B63" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="70">
-        <v>1001304237158</v>
-      </c>
-      <c r="E63" s="56"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="63" t="str">
+        <f>RIGHT(D62,4)</f>
+        <v>7241</v>
+      </c>
+      <c r="B62" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="69">
+        <v>1001303107241</v>
+      </c>
+      <c r="E62" s="55"/>
+      <c r="F62" s="14">
+        <f>E62*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="63" t="str">
+        <f>RIGHT(D63,4)</f>
+        <v>7176</v>
+      </c>
+      <c r="B63" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="69">
+        <v>1001302347176</v>
+      </c>
+      <c r="E63" s="55"/>
       <c r="F63" s="14">
         <f>E63*0.35</f>
         <v>0</v>
       </c>
-      <c r="G63" s="19"/>
+      <c r="G63" s="14"/>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7159</v>
-      </c>
-      <c r="B64" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="70">
-        <v>1001304237159</v>
-      </c>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="35"/>
+      <c r="B64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="56"/>
-      <c r="F64" s="14">
-        <f>E64*1</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7230</v>
-      </c>
-      <c r="B65" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="70">
-        <v>1001304507230</v>
-      </c>
-      <c r="E65" s="56"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="63" t="str">
+        <f t="shared" ref="A65:A78" si="4">RIGHT(D65,4)</f>
+        <v>7158</v>
+      </c>
+      <c r="B65" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="69">
+        <v>1001304237158</v>
+      </c>
+      <c r="E65" s="55"/>
       <c r="F65" s="14">
-        <f>E65*0.28</f>
+        <f>E65*0.35</f>
         <v>0</v>
       </c>
       <c r="G65" s="19"/>
@@ -3092,20 +2950,20 @@
       <c r="I65" s="16"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6790</v>
-      </c>
-      <c r="B66" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="70">
-        <v>1001300366790</v>
-      </c>
-      <c r="E66" s="56"/>
+      <c r="A66" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>7159</v>
+      </c>
+      <c r="B66" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="69">
+        <v>1001304237159</v>
+      </c>
+      <c r="E66" s="55"/>
       <c r="F66" s="14">
         <f>E66*1</f>
         <v>0</v>
@@ -3115,22 +2973,22 @@
       <c r="I66" s="16"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6566</v>
-      </c>
-      <c r="B67" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="70">
-        <v>1001305306566</v>
-      </c>
-      <c r="E67" s="56"/>
+      <c r="A67" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>7230</v>
+      </c>
+      <c r="B67" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="69">
+        <v>1001304507230</v>
+      </c>
+      <c r="E67" s="55"/>
       <c r="F67" s="14">
-        <f>E67*0.31</f>
+        <f>E67*0.28</f>
         <v>0</v>
       </c>
       <c r="G67" s="19"/>
@@ -3138,68 +2996,68 @@
       <c r="I67" s="16"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7238</v>
-      </c>
-      <c r="B68" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="70">
-        <v>1001305197238</v>
-      </c>
-      <c r="E68" s="56"/>
+      <c r="A68" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>6790</v>
+      </c>
+      <c r="B68" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="69">
+        <v>1001300366790</v>
+      </c>
+      <c r="E68" s="55"/>
       <c r="F68" s="14">
-        <f>E68*0.31</f>
+        <f>E68*1</f>
         <v>0</v>
       </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="15"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="16"/>
       <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6565</v>
-      </c>
-      <c r="B69" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="70">
-        <v>1001305316565</v>
-      </c>
-      <c r="E69" s="56"/>
+      <c r="A69" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>6566</v>
+      </c>
+      <c r="B69" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="69">
+        <v>1001305306566</v>
+      </c>
+      <c r="E69" s="55"/>
       <c r="F69" s="14">
         <f>E69*0.31</f>
         <v>0</v>
       </c>
-      <c r="G69" s="14"/>
+      <c r="G69" s="19"/>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7162</v>
-      </c>
-      <c r="B70" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="70">
-        <v>1001303987162</v>
-      </c>
-      <c r="E70" s="56"/>
+      <c r="A70" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>7238</v>
+      </c>
+      <c r="B70" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="69">
+        <v>1001305197238</v>
+      </c>
+      <c r="E70" s="55"/>
       <c r="F70" s="14">
-        <f>E70*0.35</f>
+        <f>E70*0.31</f>
         <v>0</v>
       </c>
       <c r="G70" s="14"/>
@@ -3207,43 +3065,43 @@
       <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7165</v>
-      </c>
-      <c r="B71" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="70">
-        <v>1001303987165</v>
-      </c>
-      <c r="E71" s="56"/>
+      <c r="A71" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>6565</v>
+      </c>
+      <c r="B71" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="69">
+        <v>1001305316565</v>
+      </c>
+      <c r="E71" s="55"/>
       <c r="F71" s="14">
-        <f>E71*1</f>
+        <f>E71*0.31</f>
         <v>0</v>
       </c>
       <c r="G71" s="14"/>
-      <c r="H71" s="22"/>
+      <c r="H71" s="16"/>
       <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6698</v>
-      </c>
-      <c r="B72" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="70">
-        <v>1001301876698</v>
-      </c>
-      <c r="E72" s="56"/>
+      <c r="A72" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>7162</v>
+      </c>
+      <c r="B72" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="69">
+        <v>1001303987162</v>
+      </c>
+      <c r="E72" s="55"/>
       <c r="F72" s="14">
         <f>E72*0.35</f>
         <v>0</v>
@@ -3252,174 +3110,174 @@
       <c r="H72" s="15"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="64" t="str">
-        <f t="shared" si="2"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>7333</v>
+      </c>
+      <c r="B73" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="69">
+        <v>7333</v>
+      </c>
+      <c r="E73" s="55"/>
+      <c r="F73" s="14">
+        <f>E73*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>7165</v>
+      </c>
+      <c r="B74" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="69">
+        <v>1001303987165</v>
+      </c>
+      <c r="E74" s="55"/>
+      <c r="F74" s="14">
+        <f>E74*1</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>6698</v>
+      </c>
+      <c r="B75" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="69">
+        <v>1001301876698</v>
+      </c>
+      <c r="E75" s="55"/>
+      <c r="F75" s="14">
+        <f>E75*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="16"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="63" t="str">
+        <f t="shared" si="4"/>
         <v>5607</v>
       </c>
-      <c r="B73" s="67" t="s">
+      <c r="B76" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="69">
+        <v>1001051875607</v>
+      </c>
+      <c r="E76" s="55"/>
+      <c r="F76" s="14">
+        <f>E76*1</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>6787</v>
+      </c>
+      <c r="B77" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="69">
+        <v>1001300456787</v>
+      </c>
+      <c r="E77" s="55"/>
+      <c r="F77" s="14">
+        <f>E77*0.33</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="26"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="24"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>6946</v>
+      </c>
+      <c r="B78" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="70">
-        <v>1001051875607</v>
-      </c>
-      <c r="E73" s="56"/>
-      <c r="F73" s="14">
-        <f>E73*1</f>
+      <c r="C78" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="69">
+        <v>1001300456946</v>
+      </c>
+      <c r="E78" s="55"/>
+      <c r="F78" s="14">
+        <f>E78</f>
         <v>0</v>
       </c>
-      <c r="G73" s="14"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="16"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6787</v>
-      </c>
-      <c r="B74" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="70">
-        <v>1001300456787</v>
-      </c>
-      <c r="E74" s="56"/>
-      <c r="F74" s="14">
-        <f>E74*0.33</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="26"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="24"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6946</v>
-      </c>
-      <c r="B75" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="70">
-        <v>1001300456946</v>
-      </c>
-      <c r="E75" s="56"/>
-      <c r="F75" s="14">
-        <f>E75</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="26"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="24"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="64" t="str">
-        <f t="shared" si="2"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="24"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="35"/>
+      <c r="B79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="63" t="str">
+        <f t="shared" ref="A80:A89" si="5">RIGHT(D80,4)</f>
         <v>5738</v>
       </c>
-      <c r="B77" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="65">
+      <c r="B80" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="64">
         <v>1001061975738</v>
       </c>
-      <c r="E77" s="56"/>
-      <c r="F77" s="14">
-        <f>E77*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="14"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5708</v>
-      </c>
-      <c r="B78" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="70">
-        <v>1001063145708</v>
-      </c>
-      <c r="E78" s="56"/>
-      <c r="F78" s="14">
-        <f>E78*1</f>
-        <v>0</v>
-      </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>4993</v>
-      </c>
-      <c r="B79" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="C79" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="70">
-        <v>1001060764993</v>
-      </c>
-      <c r="E79" s="56"/>
-      <c r="F79" s="14">
-        <f>E79*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6453</v>
-      </c>
-      <c r="B80" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="70">
-        <v>1001202506453</v>
-      </c>
-      <c r="E80" s="56"/>
+      <c r="E80" s="55"/>
       <c r="F80" s="14">
-        <f>E80*0.5</f>
+        <f>E80*0.25</f>
         <v>0</v>
       </c>
       <c r="G80" s="14"/>
@@ -3427,404 +3285,449 @@
       <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="64" t="str">
-        <f t="shared" si="2"/>
+      <c r="A81" s="63" t="str">
+        <f t="shared" si="5"/>
+        <v>5708</v>
+      </c>
+      <c r="B81" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="69">
+        <v>1001063145708</v>
+      </c>
+      <c r="E81" s="55"/>
+      <c r="F81" s="14">
+        <f>E81*1</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="63" t="str">
+        <f t="shared" si="5"/>
+        <v>4993</v>
+      </c>
+      <c r="B82" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="69">
+        <v>1001060764993</v>
+      </c>
+      <c r="E82" s="55"/>
+      <c r="F82" s="14">
+        <f>E82*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="14"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="63" t="str">
+        <f t="shared" si="5"/>
+        <v>6453</v>
+      </c>
+      <c r="B83" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="69">
+        <v>1001202506453</v>
+      </c>
+      <c r="E83" s="55"/>
+      <c r="F83" s="14">
+        <f>E83*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="63" t="str">
+        <f t="shared" si="5"/>
         <v>4117</v>
       </c>
-      <c r="B81" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="70">
+      <c r="B84" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="69">
         <v>1001062504117</v>
       </c>
-      <c r="E81" s="56"/>
-      <c r="F81" s="14">
-        <f>E81</f>
+      <c r="E84" s="55"/>
+      <c r="F84" s="14">
+        <f>E84</f>
         <v>0</v>
       </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="20"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="64" t="str">
-        <f t="shared" si="2"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="20"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="63" t="str">
+        <f t="shared" si="5"/>
         <v>5681</v>
       </c>
-      <c r="B82" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C82" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="70">
+      <c r="B85" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="69">
         <v>1001190765681</v>
       </c>
-      <c r="E82" s="56"/>
-      <c r="F82" s="14">
-        <f>E82*0.15</f>
+      <c r="E85" s="55"/>
+      <c r="F85" s="14">
+        <f>E85*0.15</f>
         <v>0</v>
       </c>
-      <c r="G82" s="14"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="64" t="str">
-        <f t="shared" si="2"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="63" t="str">
+        <f t="shared" si="5"/>
         <v>5739</v>
       </c>
-      <c r="B83" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="70">
+      <c r="B86" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="69">
         <v>1001062475739</v>
       </c>
-      <c r="E83" s="56"/>
-      <c r="F83" s="14">
-        <f>E83*0.25</f>
+      <c r="E86" s="55"/>
+      <c r="F86" s="14">
+        <f>E86*0.25</f>
         <v>0</v>
       </c>
-      <c r="G83" s="14"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="24"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="64" t="str">
-        <f t="shared" si="2"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="24"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="63" t="str">
+        <f t="shared" si="5"/>
         <v>1146</v>
       </c>
-      <c r="B84" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="70">
+      <c r="B87" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="69">
         <v>1001061971146</v>
       </c>
-      <c r="E84" s="56"/>
-      <c r="F84" s="14">
-        <f>E84*1</f>
+      <c r="E87" s="55"/>
+      <c r="F87" s="14">
+        <f>E87*1</f>
         <v>0</v>
       </c>
-      <c r="G84" s="26"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="24"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="64" t="str">
-        <f t="shared" si="2"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="24"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="63" t="str">
+        <f t="shared" si="5"/>
         <v>4154</v>
       </c>
-      <c r="B85" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="70">
+      <c r="B88" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="69">
         <v>1001062474154</v>
       </c>
-      <c r="E85" s="56"/>
-      <c r="F85" s="14">
-        <f>E85*1</f>
+      <c r="E88" s="55"/>
+      <c r="F88" s="14">
+        <f>E88*1</f>
         <v>0</v>
       </c>
-      <c r="G85" s="26"/>
-      <c r="H85" s="63"/>
-      <c r="I85" s="24"/>
-    </row>
-    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="64" t="str">
-        <f t="shared" si="2"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="24"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="63" t="str">
+        <f t="shared" si="5"/>
         <v>6835</v>
       </c>
-      <c r="B86" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="65">
+      <c r="B89" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="64">
         <v>1001203146835</v>
       </c>
-      <c r="E86" s="56"/>
-      <c r="F86" s="14">
-        <f>E86*0.1</f>
+      <c r="E89" s="55"/>
+      <c r="F89" s="14">
+        <f>E89*0.1</f>
         <v>0</v>
       </c>
-      <c r="G86" s="26"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="24"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>3215</v>
-      </c>
-      <c r="B88" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C88" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="65">
-        <v>1001094053215</v>
-      </c>
-      <c r="E88" s="56"/>
-      <c r="F88" s="14">
-        <f>E88</f>
-        <v>0</v>
-      </c>
-      <c r="G88" s="14"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="24"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5452</v>
-      </c>
-      <c r="B89" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="65">
-        <v>1001092485452</v>
-      </c>
-      <c r="E89" s="56"/>
-      <c r="F89" s="14">
-        <f>E89*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="G89" s="14"/>
-      <c r="H89" s="15"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="62"/>
       <c r="I89" s="24"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="35"/>
       <c r="B90" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="C90" s="25"/>
       <c r="D90" s="25"/>
-      <c r="E90" s="57"/>
+      <c r="E90" s="56"/>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
     </row>
-    <row r="91" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5074</v>
-      </c>
-      <c r="B91" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" s="70">
-        <v>1001080345074</v>
-      </c>
-      <c r="E91" s="56"/>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="63" t="str">
+        <f t="shared" ref="A91:A98" si="6">RIGHT(D91,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B91" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="64">
+        <v>1001094053215</v>
+      </c>
+      <c r="E91" s="55"/>
       <c r="F91" s="14">
-        <f>E91*0.3</f>
+        <f>E91</f>
         <v>0</v>
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
-      <c r="I91" s="16"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6207</v>
-      </c>
-      <c r="B92" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="C92" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="70">
-        <v>1001083446207</v>
-      </c>
-      <c r="E92" s="56"/>
+      <c r="I91" s="24"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v>5452</v>
+      </c>
+      <c r="B92" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="64">
+        <v>1001092485452</v>
+      </c>
+      <c r="E92" s="55"/>
       <c r="F92" s="14">
-        <f>E92*0.3</f>
+        <f>E92*0.4</f>
         <v>0</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
-      <c r="I92" s="16"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7089</v>
-      </c>
-      <c r="B93" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="70">
-        <v>1001084217089</v>
-      </c>
+      <c r="I92" s="24"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="25"/>
       <c r="E93" s="56"/>
-      <c r="F93" s="14">
-        <f>E93*0.3</f>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+    </row>
+    <row r="94" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v>5074</v>
+      </c>
+      <c r="B94" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="69">
+        <v>1001080345074</v>
+      </c>
+      <c r="E94" s="55"/>
+      <c r="F94" s="14">
+        <f>E94*0.3</f>
         <v>0</v>
       </c>
-      <c r="G93" s="14"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="16"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7187</v>
-      </c>
-      <c r="B94" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="70">
-        <v>1001085637187</v>
-      </c>
-      <c r="E94" s="56"/>
-      <c r="F94" s="14"/>
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7104</v>
-      </c>
-      <c r="B95" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="C95" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="70">
-        <v>1001223297104</v>
-      </c>
-      <c r="E95" s="56"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v>6207</v>
+      </c>
+      <c r="B95" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="69">
+        <v>1001083446207</v>
+      </c>
+      <c r="E95" s="55"/>
       <c r="F95" s="14">
-        <f>E95*0.18</f>
+        <f>E95*0.3</f>
         <v>0</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="58">
-        <f>SUM(E10:E95)</f>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v>7089</v>
+      </c>
+      <c r="B96" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="69">
+        <v>1001084217089</v>
+      </c>
+      <c r="E96" s="55"/>
+      <c r="F96" s="14">
+        <f>E96*0.3</f>
         <v>0</v>
       </c>
-      <c r="F96" s="28">
-        <f>SUM(F10:F95)</f>
+      <c r="G96" s="14"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v>7187</v>
+      </c>
+      <c r="B97" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="69">
+        <v>1001085637187</v>
+      </c>
+      <c r="E97" s="55"/>
+      <c r="F97" s="14">
+        <f>E97*0.3</f>
         <v>0</v>
       </c>
-      <c r="G96" s="37"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="29"/>
-    </row>
-    <row r="97" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="30"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="60"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="30"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="34"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="30"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="F99" s="61"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="34"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G97" s="14"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="16"/>
+    </row>
+    <row r="98" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v>7104</v>
+      </c>
+      <c r="B98" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="69">
+        <v>1001223297104</v>
+      </c>
+      <c r="E98" s="55"/>
+      <c r="F98" s="14">
+        <f>E98*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="57">
+        <f>SUM(E10:E98)</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="28">
+        <f>SUM(F10:F98)</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="37"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="29"/>
+    </row>
+    <row r="100" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B100" s="30"/>
       <c r="C100" s="31"/>
       <c r="D100" s="31"/>
-      <c r="F100" s="32"/>
+      <c r="F100" s="60"/>
       <c r="G100" s="33"/>
       <c r="H100" s="33"/>
-      <c r="I100" s="34"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I100" s="59"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B101" s="30"/>
       <c r="C101" s="31"/>
       <c r="D101" s="31"/>
-      <c r="F101" s="32"/>
+      <c r="F101" s="60"/>
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
       <c r="I101" s="34"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B102" s="30"/>
       <c r="C102" s="31"/>
       <c r="D102" s="31"/>
-      <c r="F102" s="32"/>
+      <c r="F102" s="60"/>
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
       <c r="I102" s="34"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103" s="30"/>
       <c r="C103" s="31"/>
       <c r="D103" s="31"/>
@@ -3833,7 +3736,7 @@
       <c r="H103" s="33"/>
       <c r="I103" s="34"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="30"/>
       <c r="C104" s="31"/>
       <c r="D104" s="31"/>
@@ -3842,7 +3745,7 @@
       <c r="H104" s="33"/>
       <c r="I104" s="34"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B105" s="30"/>
       <c r="C105" s="31"/>
       <c r="D105" s="31"/>
@@ -3851,7 +3754,7 @@
       <c r="H105" s="33"/>
       <c r="I105" s="34"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B106" s="30"/>
       <c r="C106" s="31"/>
       <c r="D106" s="31"/>
@@ -3860,7 +3763,7 @@
       <c r="H106" s="33"/>
       <c r="I106" s="34"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B107" s="30"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
@@ -3869,7 +3772,7 @@
       <c r="H107" s="33"/>
       <c r="I107" s="34"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" s="30"/>
       <c r="C108" s="31"/>
       <c r="D108" s="31"/>
@@ -3878,7 +3781,7 @@
       <c r="H108" s="33"/>
       <c r="I108" s="34"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="30"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
@@ -3887,7 +3790,7 @@
       <c r="H109" s="33"/>
       <c r="I109" s="34"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B110" s="30"/>
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
@@ -3896,7 +3799,7 @@
       <c r="H110" s="33"/>
       <c r="I110" s="34"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B111" s="30"/>
       <c r="C111" s="31"/>
       <c r="D111" s="31"/>
@@ -3905,7 +3808,7 @@
       <c r="H111" s="33"/>
       <c r="I111" s="34"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" s="30"/>
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
@@ -17486,18 +17389,42 @@
       <c r="H1620" s="33"/>
       <c r="I1620" s="34"/>
     </row>
+    <row r="1621" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1621" s="30"/>
+      <c r="C1621" s="31"/>
+      <c r="D1621" s="31"/>
+      <c r="F1621" s="32"/>
+      <c r="G1621" s="33"/>
+      <c r="H1621" s="33"/>
+      <c r="I1621" s="34"/>
+    </row>
+    <row r="1622" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1622" s="30"/>
+      <c r="C1622" s="31"/>
+      <c r="D1622" s="31"/>
+      <c r="F1622" s="32"/>
+      <c r="G1622" s="33"/>
+      <c r="H1622" s="33"/>
+      <c r="I1622" s="34"/>
+    </row>
+    <row r="1623" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1623" s="30"/>
+      <c r="C1623" s="31"/>
+      <c r="D1623" s="31"/>
+      <c r="F1623" s="32"/>
+      <c r="G1623" s="33"/>
+      <c r="H1623" s="33"/>
+      <c r="I1623" s="34"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:I98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:I101" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F54 F71 F73 F21" formula="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6E63EA-A72C-4C28-B0C4-726FCF08BD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0875370-85C3-42DC-B7B4-F18250C1E0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="машины" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$103</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t>ВСЕГО:</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
   </si>
 </sst>
 </file>
@@ -1507,11 +1513,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R1623"/>
+  <dimension ref="A1:R1625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+      <pane ySplit="9" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="42">
-        <v>45930</v>
+        <v>45944</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>3</v>
@@ -1825,7 +1831,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="str">
-        <f t="shared" ref="A16:A29" si="0">RIGHT(D16,4)</f>
+        <f t="shared" ref="A16:A30" si="0">RIGHT(D16,4)</f>
         <v>6334</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -2120,16 +2126,16 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>6877</v>
+        <v>6220</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="64">
-        <v>1001015676877</v>
+        <v>1001012426220</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="70">
@@ -2140,19 +2146,19 @@
       <c r="H28" s="15"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>6878</v>
+        <v>6877</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="64">
-        <v>1001015686878</v>
+        <v>1001015676877</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="70">
@@ -2163,59 +2169,59 @@
       <c r="H29" s="15"/>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>6878</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="64">
+        <v>1001015686878</v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="70">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63" t="str">
-        <f t="shared" ref="A31:A43" si="1">RIGHT(D31,4)</f>
+      <c r="C31" s="18"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="63" t="str">
+        <f t="shared" ref="A32:A44" si="1">RIGHT(D32,4)</f>
         <v>6765</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="64">
-        <v>1001023696765</v>
-      </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="19">
-        <f>E31*0.36</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>6768</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="C32" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="64">
-        <v>1001025176768</v>
+        <v>1001023696765</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="19">
-        <f>E32*0.41</f>
+        <f>E32*0.36</f>
         <v>0</v>
       </c>
       <c r="G32" s="14"/>
@@ -2225,16 +2231,16 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>6770</v>
+        <v>6768</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="64">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="19">
@@ -2248,20 +2254,20 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>6602</v>
-      </c>
-      <c r="B34" s="63" t="s">
-        <v>47</v>
+        <v>6770</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C34" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="64">
-        <v>1001021966602</v>
+        <v>1001025486770</v>
       </c>
       <c r="E34" s="55"/>
       <c r="F34" s="19">
-        <f>E34*0.35</f>
+        <f>E34*0.41</f>
         <v>0</v>
       </c>
       <c r="G34" s="14"/>
@@ -2271,20 +2277,20 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>6713</v>
-      </c>
-      <c r="B35" s="66" t="s">
-        <v>48</v>
+        <v>6602</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>47</v>
       </c>
       <c r="C35" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="69">
-        <v>1001022246713</v>
+      <c r="D35" s="64">
+        <v>1001021966602</v>
       </c>
       <c r="E35" s="55"/>
       <c r="F35" s="19">
-        <f>E35*0.41</f>
+        <f>E35*0.35</f>
         <v>0</v>
       </c>
       <c r="G35" s="14"/>
@@ -2294,43 +2300,43 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>6240</v>
+        <v>6713</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="69">
-        <v>1001022246240</v>
+        <v>1001022246713</v>
       </c>
       <c r="E36" s="55"/>
-      <c r="F36" s="14">
-        <f>E36*0.45</f>
+      <c r="F36" s="19">
+        <f>E36*0.41</f>
         <v>0</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
+      <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>7151</v>
+        <v>6240</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="69">
-        <v>1001020837151</v>
+        <v>1001022246240</v>
       </c>
       <c r="E37" s="55"/>
       <c r="F37" s="14">
-        <f>E37*0.41</f>
+        <f>E37*0.45</f>
         <v>0</v>
       </c>
       <c r="G37" s="14"/>
@@ -2340,20 +2346,20 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>6854</v>
+        <v>7151</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="69">
-        <v>1001022656854</v>
+        <v>1001020837151</v>
       </c>
       <c r="E38" s="55"/>
       <c r="F38" s="14">
-        <f>E38*0.6</f>
+        <f>E38*0.41</f>
         <v>0</v>
       </c>
       <c r="G38" s="14"/>
@@ -2363,43 +2369,43 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>7075</v>
+        <v>6854</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" s="69">
-        <v>1001022657075</v>
+        <v>1001022656854</v>
       </c>
       <c r="E39" s="55"/>
       <c r="F39" s="14">
-        <f>E39</f>
+        <f>E39*0.6</f>
         <v>0</v>
       </c>
       <c r="G39" s="14"/>
-      <c r="H39" s="16"/>
+      <c r="H39" s="15"/>
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>5819</v>
-      </c>
-      <c r="B40" s="63" t="s">
-        <v>53</v>
+        <v>7075</v>
+      </c>
+      <c r="B40" s="66" t="s">
+        <v>52</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D40" s="69">
-        <v>1001022725819</v>
+        <v>1001022657075</v>
       </c>
       <c r="E40" s="55"/>
       <c r="F40" s="14">
-        <f>E40*0.4</f>
+        <f>E40</f>
         <v>0</v>
       </c>
       <c r="G40" s="14"/>
@@ -2409,16 +2415,16 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>7255</v>
-      </c>
-      <c r="B41" s="71" t="s">
-        <v>54</v>
+        <v>5819</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>53</v>
       </c>
       <c r="C41" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="72">
-        <v>1001025507255</v>
+      <c r="D41" s="69">
+        <v>1001022725819</v>
       </c>
       <c r="E41" s="55"/>
       <c r="F41" s="14">
@@ -2432,7 +2438,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>7077</v>
+        <v>7255</v>
       </c>
       <c r="B42" s="71" t="s">
         <v>54</v>
@@ -2441,7 +2447,7 @@
         <v>23</v>
       </c>
       <c r="D42" s="72">
-        <v>1001025507077</v>
+        <v>1001025507255</v>
       </c>
       <c r="E42" s="55"/>
       <c r="F42" s="14">
@@ -2455,20 +2461,20 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>7271</v>
+        <v>7077</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D43" s="72">
-        <v>1001025507271</v>
+        <v>1001025507077</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="14">
-        <f>E43*1</f>
+        <f>E43*0.4</f>
         <v>0</v>
       </c>
       <c r="G43" s="14"/>
@@ -2476,21 +2482,22 @@
       <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="65">
-        <v>6870</v>
-      </c>
-      <c r="B44" s="63" t="s">
-        <v>56</v>
+      <c r="A44" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>7271</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>55</v>
       </c>
       <c r="C44" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="69">
-        <v>1001022466726</v>
+        <v>25</v>
+      </c>
+      <c r="D44" s="72">
+        <v>1001025507271</v>
       </c>
       <c r="E44" s="55"/>
       <c r="F44" s="14">
-        <f>E44*0.41</f>
+        <f>E44*1</f>
         <v>0</v>
       </c>
       <c r="G44" s="14"/>
@@ -2499,20 +2506,20 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="65">
-        <v>6759</v>
-      </c>
-      <c r="B45" s="66" t="s">
-        <v>57</v>
+        <v>6870</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>56</v>
       </c>
       <c r="C45" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="69">
-        <v>1001020836759</v>
+        <v>1001022466726</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="14">
-        <f>E45*0.4</f>
+        <f>E45*0.41</f>
         <v>0</v>
       </c>
       <c r="G45" s="14"/>
@@ -2520,22 +2527,21 @@
       <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="63" t="str">
-        <f t="shared" ref="A46:A52" si="2">RIGHT(D46,4)</f>
-        <v>7064</v>
+      <c r="A46" s="65">
+        <v>6759</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="69">
-        <v>1001022377064</v>
+        <v>1001020836759</v>
       </c>
       <c r="E46" s="55"/>
       <c r="F46" s="14">
-        <f>E46*0.35</f>
+        <f>E46*0.4</f>
         <v>0</v>
       </c>
       <c r="G46" s="14"/>
@@ -2544,21 +2550,21 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="str">
-        <f t="shared" si="2"/>
-        <v>7067</v>
+        <f t="shared" ref="A47:A53" si="2">RIGHT(D47,4)</f>
+        <v>7064</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="69">
-        <v>1001022377067</v>
+        <v>1001022377064</v>
       </c>
       <c r="E47" s="55"/>
       <c r="F47" s="14">
-        <f>E47*0.41</f>
+        <f>E47*0.35</f>
         <v>0</v>
       </c>
       <c r="G47" s="14"/>
@@ -2568,20 +2574,20 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>7070</v>
+        <v>7067</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D48" s="69">
-        <v>1001022377070</v>
+        <v>1001022377067</v>
       </c>
       <c r="E48" s="55"/>
       <c r="F48" s="14">
-        <f>E48</f>
+        <f>E48*0.41</f>
         <v>0</v>
       </c>
       <c r="G48" s="14"/>
@@ -2591,39 +2597,39 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>6303</v>
+        <v>7070</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="61" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="69">
-        <v>1001022726303</v>
+        <v>1001022377070</v>
       </c>
       <c r="E49" s="55"/>
       <c r="F49" s="14">
-        <f>E49*1</f>
+        <f>E49</f>
         <v>0</v>
       </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>7244</v>
+        <v>6303</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="61" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="69">
-        <v>1001022557244</v>
+        <v>1001022726303</v>
       </c>
       <c r="E50" s="55"/>
       <c r="F50" s="14">
@@ -2637,16 +2643,16 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>6254</v>
-      </c>
-      <c r="B51" s="63" t="s">
-        <v>63</v>
+        <v>7244</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>62</v>
       </c>
       <c r="C51" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="64">
-        <v>1001022556254</v>
+      <c r="D51" s="69">
+        <v>1001022557244</v>
       </c>
       <c r="E51" s="55"/>
       <c r="F51" s="14">
@@ -2657,82 +2663,82 @@
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>6837</v>
+        <v>6254</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D52" s="64">
-        <v>1001022556837</v>
+        <v>1001022556254</v>
       </c>
       <c r="E52" s="55"/>
       <c r="F52" s="14">
-        <f>E52*0.4</f>
+        <f>E52*1</f>
         <v>0</v>
       </c>
       <c r="G52" s="26"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="3" t="s">
+    <row r="53" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="63" t="str">
+        <f t="shared" si="2"/>
+        <v>6837</v>
+      </c>
+      <c r="B53" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="64">
+        <v>1001022556837</v>
+      </c>
+      <c r="E53" s="55"/>
+      <c r="F53" s="14">
+        <f>E53*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="26"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="35"/>
+      <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="63" t="str">
-        <f t="shared" ref="A54:A59" si="3">RIGHT(D54,4)</f>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="63" t="str">
+        <f t="shared" ref="A55:A60" si="3">RIGHT(D55,4)</f>
         <v>6549</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B55" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C55" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="64">
+      <c r="D55" s="64">
         <v>1001032736549</v>
-      </c>
-      <c r="E54" s="55"/>
-      <c r="F54" s="14">
-        <f>E54</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="63" t="str">
-        <f t="shared" si="3"/>
-        <v>6609</v>
-      </c>
-      <c r="B55" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="69">
-        <v>1001033856609</v>
       </c>
       <c r="E55" s="55"/>
       <c r="F55" s="14">
-        <f>E55*0.4</f>
+        <f>E55</f>
         <v>0</v>
       </c>
       <c r="G55" s="14"/>
@@ -2742,20 +2748,20 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="63" t="str">
         <f t="shared" si="3"/>
-        <v>7059</v>
+        <v>6609</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D56" s="69">
-        <v>1001035277059</v>
+        <v>1001033856609</v>
       </c>
       <c r="E56" s="55"/>
       <c r="F56" s="14">
-        <f>E56*0.3</f>
+        <f>E56*0.4</f>
         <v>0</v>
       </c>
       <c r="G56" s="14"/>
@@ -2765,20 +2771,20 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="63" t="str">
         <f t="shared" si="3"/>
-        <v>7058</v>
+        <v>7059</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D57" s="69">
-        <v>1001035277058</v>
+        <v>1001035277059</v>
       </c>
       <c r="E57" s="55"/>
       <c r="F57" s="14">
-        <f>E57</f>
+        <f>E57*0.3</f>
         <v>0</v>
       </c>
       <c r="G57" s="14"/>
@@ -2788,16 +2794,16 @@
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="63" t="str">
         <f t="shared" si="3"/>
-        <v>6548</v>
-      </c>
-      <c r="B58" s="63" t="s">
-        <v>70</v>
+        <v>7058</v>
+      </c>
+      <c r="B58" s="66" t="s">
+        <v>69</v>
       </c>
       <c r="C58" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="64">
-        <v>1001031076548</v>
+        <v>23</v>
+      </c>
+      <c r="D58" s="69">
+        <v>1001035277058</v>
       </c>
       <c r="E58" s="55"/>
       <c r="F58" s="14">
@@ -2808,78 +2814,78 @@
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="63" t="str">
         <f t="shared" si="3"/>
-        <v>5698</v>
+        <v>6548</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="61" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="64">
-        <v>1001034065698</v>
+        <v>1001031076548</v>
       </c>
       <c r="E59" s="55"/>
       <c r="F59" s="14">
         <f>E59</f>
         <v>0</v>
       </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="3" t="s">
+      <c r="G59" s="14"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v>5698</v>
+      </c>
+      <c r="B60" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="64">
+        <v>1001034065698</v>
+      </c>
+      <c r="E60" s="55"/>
+      <c r="F60" s="14">
+        <f>E60</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="26"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="35"/>
+      <c r="B61" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-    </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="63" t="str">
-        <f>RIGHT(D61,4)</f>
-        <v>7174</v>
-      </c>
-      <c r="B61" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="69">
-        <v>1001302277174</v>
-      </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="14">
-        <f>E61*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="14"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A62" s="63" t="str">
         <f>RIGHT(D62,4)</f>
-        <v>7241</v>
+        <v>7174</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="69">
-        <v>1001303107241</v>
+        <v>1001302277174</v>
       </c>
       <c r="E62" s="55"/>
       <c r="F62" s="14">
@@ -2890,82 +2896,82 @@
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="63" t="str">
         <f>RIGHT(D63,4)</f>
-        <v>7176</v>
+        <v>7241</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="69">
-        <v>1001302347176</v>
+        <v>1001303107241</v>
       </c>
       <c r="E63" s="55"/>
       <c r="F63" s="14">
-        <f>E63*0.35</f>
+        <f>E63*0.28</f>
         <v>0</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="3" t="s">
+    <row r="64" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="63" t="str">
+        <f>RIGHT(D64,4)</f>
+        <v>7176</v>
+      </c>
+      <c r="B64" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="69">
+        <v>1001302347176</v>
+      </c>
+      <c r="E64" s="55"/>
+      <c r="F64" s="14">
+        <f>E64*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="35"/>
+      <c r="B65" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-    </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="63" t="str">
-        <f t="shared" ref="A65:A78" si="4">RIGHT(D65,4)</f>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="63" t="str">
+        <f t="shared" ref="A66:A80" si="4">RIGHT(D66,4)</f>
         <v>7158</v>
       </c>
-      <c r="B65" s="66" t="s">
+      <c r="B66" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C66" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="69">
+      <c r="D66" s="69">
         <v>1001304237158</v>
-      </c>
-      <c r="E65" s="55"/>
-      <c r="F65" s="14">
-        <f>E65*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="63" t="str">
-        <f t="shared" si="4"/>
-        <v>7159</v>
-      </c>
-      <c r="B66" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="69">
-        <v>1001304237159</v>
       </c>
       <c r="E66" s="55"/>
       <c r="F66" s="14">
-        <f>E66*1</f>
+        <f>E66*0.35</f>
         <v>0</v>
       </c>
       <c r="G66" s="19"/>
@@ -2975,20 +2981,20 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>7230</v>
+        <v>7159</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" s="61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D67" s="69">
-        <v>1001304507230</v>
+        <v>1001304237159</v>
       </c>
       <c r="E67" s="55"/>
       <c r="F67" s="14">
-        <f>E67*0.28</f>
+        <f>E67*1</f>
         <v>0</v>
       </c>
       <c r="G67" s="19"/>
@@ -2998,20 +3004,20 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>6790</v>
+        <v>7230</v>
       </c>
       <c r="B68" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D68" s="69">
-        <v>1001300366790</v>
+        <v>1001304507230</v>
       </c>
       <c r="E68" s="55"/>
       <c r="F68" s="14">
-        <f>E68*1</f>
+        <f>E68*0.28</f>
         <v>0</v>
       </c>
       <c r="G68" s="19"/>
@@ -3021,20 +3027,20 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>6566</v>
+        <v>6790</v>
       </c>
       <c r="B69" s="66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" s="61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D69" s="69">
-        <v>1001305306566</v>
+        <v>1001300366790</v>
       </c>
       <c r="E69" s="55"/>
       <c r="F69" s="14">
-        <f>E69*0.31</f>
+        <f>E69*1</f>
         <v>0</v>
       </c>
       <c r="G69" s="19"/>
@@ -3044,66 +3050,66 @@
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>7238</v>
+        <v>6807</v>
       </c>
       <c r="B70" s="66" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C70" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="69">
-        <v>1001305197238</v>
+        <v>1001300366807</v>
       </c>
       <c r="E70" s="55"/>
       <c r="F70" s="14">
-        <f>E70*0.31</f>
+        <f>E70*0.33</f>
         <v>0</v>
       </c>
-      <c r="G70" s="14"/>
-      <c r="H70" s="15"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="16"/>
       <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>6565</v>
+        <v>6566</v>
       </c>
       <c r="B71" s="66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C71" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="69">
-        <v>1001305316565</v>
+        <v>1001305306566</v>
       </c>
       <c r="E71" s="55"/>
       <c r="F71" s="14">
         <f>E71*0.31</f>
         <v>0</v>
       </c>
-      <c r="G71" s="14"/>
+      <c r="G71" s="19"/>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>7162</v>
+        <v>7238</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C72" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="69">
-        <v>1001303987162</v>
+        <v>1001305197238</v>
       </c>
       <c r="E72" s="55"/>
       <c r="F72" s="14">
-        <f>E72*0.35</f>
+        <f>E72*0.31</f>
         <v>0</v>
       </c>
       <c r="G72" s="14"/>
@@ -3113,85 +3119,85 @@
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>7333</v>
+        <v>6565</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C73" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="69">
-        <v>7333</v>
+        <v>1001305316565</v>
       </c>
       <c r="E73" s="55"/>
       <c r="F73" s="14">
-        <f>E73*0.28</f>
+        <f>E73*0.31</f>
         <v>0</v>
       </c>
       <c r="G73" s="14"/>
-      <c r="H73" s="22"/>
+      <c r="H73" s="16"/>
       <c r="I73" s="16"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>7165</v>
+        <v>7162</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C74" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D74" s="69">
-        <v>1001303987165</v>
+        <v>1001303987162</v>
       </c>
       <c r="E74" s="55"/>
       <c r="F74" s="14">
-        <f>E74*1</f>
+        <f>E74*0.35</f>
         <v>0</v>
       </c>
       <c r="G74" s="14"/>
-      <c r="H74" s="22"/>
+      <c r="H74" s="15"/>
       <c r="I74" s="16"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>6698</v>
+        <v>7333</v>
       </c>
       <c r="B75" s="66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C75" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="69">
-        <v>1001301876698</v>
+        <v>7333</v>
       </c>
       <c r="E75" s="55"/>
       <c r="F75" s="14">
-        <f>E75*0.35</f>
+        <f>E75*0.28</f>
         <v>0</v>
       </c>
       <c r="G75" s="14"/>
-      <c r="H75" s="15"/>
+      <c r="H75" s="22"/>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>5607</v>
+        <v>7165</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C76" s="61" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="69">
-        <v>1001051875607</v>
+        <v>1001303987165</v>
       </c>
       <c r="E76" s="55"/>
       <c r="F76" s="14">
@@ -3199,127 +3205,127 @@
         <v>0</v>
       </c>
       <c r="G76" s="14"/>
-      <c r="H76" s="15"/>
+      <c r="H76" s="22"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>6787</v>
+        <v>6698</v>
       </c>
       <c r="B77" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C77" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="69">
-        <v>1001300456787</v>
+        <v>1001301876698</v>
       </c>
       <c r="E77" s="55"/>
       <c r="F77" s="14">
-        <f>E77*0.33</f>
+        <f>E77*0.35</f>
         <v>0</v>
       </c>
-      <c r="G77" s="26"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="24"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>6946</v>
+        <v>5607</v>
       </c>
       <c r="B78" s="66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C78" s="61" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="69">
-        <v>1001300456946</v>
+        <v>1001051875607</v>
       </c>
       <c r="E78" s="55"/>
       <c r="F78" s="14">
-        <f>E78</f>
+        <f>E78*1</f>
         <v>0</v>
       </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="24"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-    </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G78" s="14"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="16"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="63" t="str">
+        <f t="shared" si="4"/>
+        <v>6787</v>
+      </c>
+      <c r="B79" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="69">
+        <v>1001300456787</v>
+      </c>
+      <c r="E79" s="55"/>
+      <c r="F79" s="14">
+        <f>E79*0.33</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="26"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="24"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="63" t="str">
-        <f t="shared" ref="A80:A89" si="5">RIGHT(D80,4)</f>
-        <v>5738</v>
-      </c>
-      <c r="B80" s="63" t="s">
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>6946</v>
+      </c>
+      <c r="B80" s="66" t="s">
+        <v>90</v>
       </c>
       <c r="C80" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="64">
-        <v>1001061975738</v>
+        <v>25</v>
+      </c>
+      <c r="D80" s="69">
+        <v>1001300456946</v>
       </c>
       <c r="E80" s="55"/>
       <c r="F80" s="14">
-        <f>E80*0.25</f>
+        <f>E80</f>
         <v>0</v>
       </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="63" t="str">
-        <f t="shared" si="5"/>
-        <v>5708</v>
-      </c>
-      <c r="B81" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="69">
-        <v>1001063145708</v>
-      </c>
-      <c r="E81" s="55"/>
-      <c r="F81" s="14">
-        <f>E81*1</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G80" s="26"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="24"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="35"/>
+      <c r="B81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A82" s="63" t="str">
-        <f t="shared" si="5"/>
-        <v>4993</v>
-      </c>
-      <c r="B82" s="66" t="s">
-        <v>94</v>
+        <f t="shared" ref="A82:A91" si="5">RIGHT(D82,4)</f>
+        <v>5738</v>
+      </c>
+      <c r="B82" s="63" t="s">
+        <v>92</v>
       </c>
       <c r="C82" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="69">
-        <v>1001060764993</v>
+      <c r="D82" s="64">
+        <v>1001061975738</v>
       </c>
       <c r="E82" s="55"/>
       <c r="F82" s="14">
@@ -3333,20 +3339,20 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="str">
         <f t="shared" si="5"/>
-        <v>6453</v>
+        <v>5708</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C83" s="61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D83" s="69">
-        <v>1001202506453</v>
+        <v>1001063145708</v>
       </c>
       <c r="E83" s="55"/>
       <c r="F83" s="14">
-        <f>E83*0.5</f>
+        <f>E83*1</f>
         <v>0</v>
       </c>
       <c r="G83" s="14"/>
@@ -3356,275 +3362,275 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="63" t="str">
         <f t="shared" si="5"/>
-        <v>4117</v>
+        <v>4993</v>
       </c>
       <c r="B84" s="66" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C84" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D84" s="69">
-        <v>1001062504117</v>
+        <v>1001060764993</v>
       </c>
       <c r="E84" s="55"/>
       <c r="F84" s="14">
-        <f>E84</f>
+        <f>E84*0.25</f>
         <v>0</v>
       </c>
       <c r="G84" s="14"/>
-      <c r="H84" s="15"/>
+      <c r="H84" s="20"/>
       <c r="I84" s="20"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="63" t="str">
         <f t="shared" si="5"/>
-        <v>5681</v>
+        <v>6453</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C85" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="69">
-        <v>1001190765681</v>
+        <v>1001202506453</v>
       </c>
       <c r="E85" s="55"/>
       <c r="F85" s="14">
-        <f>E85*0.15</f>
+        <f>E85*0.5</f>
         <v>0</v>
       </c>
       <c r="G85" s="14"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="63" t="str">
         <f t="shared" si="5"/>
-        <v>5739</v>
+        <v>4117</v>
       </c>
       <c r="B86" s="66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C86" s="61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D86" s="69">
-        <v>1001062475739</v>
+        <v>1001062504117</v>
       </c>
       <c r="E86" s="55"/>
       <c r="F86" s="14">
-        <f>E86*0.25</f>
+        <f>E86</f>
         <v>0</v>
       </c>
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
-      <c r="I86" s="24"/>
+      <c r="I86" s="20"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="63" t="str">
         <f t="shared" si="5"/>
-        <v>1146</v>
+        <v>5681</v>
       </c>
       <c r="B87" s="66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C87" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D87" s="69">
-        <v>1001061971146</v>
+        <v>1001190765681</v>
       </c>
       <c r="E87" s="55"/>
       <c r="F87" s="14">
-        <f>E87*1</f>
+        <f>E87*0.15</f>
         <v>0</v>
       </c>
-      <c r="G87" s="26"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="24"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="63" t="str">
         <f t="shared" si="5"/>
-        <v>4154</v>
+        <v>5739</v>
       </c>
       <c r="B88" s="66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C88" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D88" s="69">
-        <v>1001062474154</v>
+        <v>1001062475739</v>
       </c>
       <c r="E88" s="55"/>
       <c r="F88" s="14">
-        <f>E88*1</f>
+        <f>E88*0.25</f>
         <v>0</v>
       </c>
-      <c r="G88" s="26"/>
-      <c r="H88" s="62"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="15"/>
       <c r="I88" s="24"/>
     </row>
-    <row r="89" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="str">
         <f t="shared" si="5"/>
-        <v>6835</v>
-      </c>
-      <c r="B89" s="63" t="s">
-        <v>101</v>
+        <v>1146</v>
+      </c>
+      <c r="B89" s="66" t="s">
+        <v>99</v>
       </c>
       <c r="C89" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="64">
-        <v>1001203146835</v>
+        <v>25</v>
+      </c>
+      <c r="D89" s="69">
+        <v>1001061971146</v>
       </c>
       <c r="E89" s="55"/>
       <c r="F89" s="14">
-        <f>E89*0.1</f>
+        <f>E89*1</f>
         <v>0</v>
       </c>
       <c r="G89" s="26"/>
       <c r="H89" s="62"/>
       <c r="I89" s="24"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
-      <c r="B90" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="63" t="str">
+        <f t="shared" si="5"/>
+        <v>4154</v>
+      </c>
+      <c r="B90" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="69">
+        <v>1001062474154</v>
+      </c>
+      <c r="E90" s="55"/>
+      <c r="F90" s="14">
+        <f>E90*1</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="26"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="24"/>
+    </row>
+    <row r="91" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="63" t="str">
-        <f t="shared" ref="A91:A98" si="6">RIGHT(D91,4)</f>
-        <v>3215</v>
+        <f t="shared" si="5"/>
+        <v>6835</v>
       </c>
       <c r="B91" s="63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C91" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D91" s="64">
-        <v>1001094053215</v>
+        <v>1001203146835</v>
       </c>
       <c r="E91" s="55"/>
       <c r="F91" s="14">
-        <f>E91</f>
+        <f>E91*0.1</f>
         <v>0</v>
       </c>
-      <c r="G91" s="14"/>
-      <c r="H91" s="15"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="62"/>
       <c r="I91" s="24"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="63" t="str">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="35"/>
+      <c r="B92" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="63" t="str">
+        <f t="shared" ref="A93:A100" si="6">RIGHT(D93,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B93" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="64">
+        <v>1001094053215</v>
+      </c>
+      <c r="E93" s="55"/>
+      <c r="F93" s="14">
+        <f>E93</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="14"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="24"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="63" t="str">
         <f t="shared" si="6"/>
         <v>5452</v>
       </c>
-      <c r="B92" s="63" t="s">
+      <c r="B94" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C92" s="61" t="s">
+      <c r="C94" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D92" s="64">
+      <c r="D94" s="64">
         <v>1001092485452</v>
       </c>
-      <c r="E92" s="55"/>
-      <c r="F92" s="14">
-        <f>E92*0.4</f>
+      <c r="E94" s="55"/>
+      <c r="F94" s="14">
+        <f>E94*0.4</f>
         <v>0</v>
       </c>
-      <c r="G92" s="14"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="24"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="35" t="str">
+      <c r="G94" s="14"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="24"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="35" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-    </row>
-    <row r="94" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="63" t="str">
+      <c r="C95" s="2"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+    </row>
+    <row r="96" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="63" t="str">
         <f t="shared" si="6"/>
         <v>5074</v>
       </c>
-      <c r="B94" s="66" t="s">
+      <c r="B96" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="C94" s="61" t="s">
+      <c r="C96" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="69">
+      <c r="D96" s="69">
         <v>1001080345074</v>
-      </c>
-      <c r="E94" s="55"/>
-      <c r="F94" s="14">
-        <f>E94*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="14"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="16"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="63" t="str">
-        <f t="shared" si="6"/>
-        <v>6207</v>
-      </c>
-      <c r="B95" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="C95" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="69">
-        <v>1001083446207</v>
-      </c>
-      <c r="E95" s="55"/>
-      <c r="F95" s="14">
-        <f>E95*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="14"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="16"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="63" t="str">
-        <f t="shared" si="6"/>
-        <v>7089</v>
-      </c>
-      <c r="B96" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="C96" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="69">
-        <v>1001084217089</v>
       </c>
       <c r="E96" s="55"/>
       <c r="F96" s="14">
@@ -3638,16 +3644,16 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="63" t="str">
         <f t="shared" si="6"/>
-        <v>7187</v>
+        <v>6207</v>
       </c>
       <c r="B97" s="66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C97" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="69">
-        <v>1001085637187</v>
+        <v>1001083446207</v>
       </c>
       <c r="E97" s="55"/>
       <c r="F97" s="14">
@@ -3658,80 +3664,108 @@
       <c r="H97" s="15"/>
       <c r="I97" s="16"/>
     </row>
-    <row r="98" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="63" t="str">
         <f t="shared" si="6"/>
-        <v>7104</v>
+        <v>7089</v>
       </c>
       <c r="B98" s="66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C98" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="69">
-        <v>1001223297104</v>
+        <v>1001084217089</v>
       </c>
       <c r="E98" s="55"/>
       <c r="F98" s="14">
-        <f>E98*0.18</f>
+        <f>E98*0.3</f>
         <v>0</v>
       </c>
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
       <c r="I98" s="16"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v>7187</v>
+      </c>
+      <c r="B99" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="69">
+        <v>1001085637187</v>
+      </c>
+      <c r="E99" s="55"/>
+      <c r="F99" s="14">
+        <f>E99*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="16"/>
+    </row>
+    <row r="100" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v>7104</v>
+      </c>
+      <c r="B100" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="69">
+        <v>1001223297104</v>
+      </c>
+      <c r="E100" s="55"/>
+      <c r="F100" s="14">
+        <f>E100*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="14"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="16"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="27"/>
+      <c r="B101" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="57">
-        <f>SUM(E10:E98)</f>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="57">
+        <f>SUM(E10:E100)</f>
         <v>0</v>
       </c>
-      <c r="F99" s="28">
-        <f>SUM(F10:F98)</f>
+      <c r="F101" s="28">
+        <f>SUM(F10:F100)</f>
         <v>0</v>
       </c>
-      <c r="G99" s="37"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="29"/>
-    </row>
-    <row r="100" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="30"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="59"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="30"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="34"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G101" s="37"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="29"/>
+    </row>
+    <row r="102" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B102" s="30"/>
       <c r="C102" s="31"/>
       <c r="D102" s="31"/>
       <c r="F102" s="60"/>
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
-      <c r="I102" s="34"/>
+      <c r="I102" s="59"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103" s="30"/>
       <c r="C103" s="31"/>
       <c r="D103" s="31"/>
-      <c r="F103" s="32"/>
+      <c r="F103" s="60"/>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
       <c r="I103" s="34"/>
@@ -3740,7 +3774,7 @@
       <c r="B104" s="30"/>
       <c r="C104" s="31"/>
       <c r="D104" s="31"/>
-      <c r="F104" s="32"/>
+      <c r="F104" s="60"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="34"/>
@@ -17416,8 +17450,26 @@
       <c r="H1623" s="33"/>
       <c r="I1623" s="34"/>
     </row>
+    <row r="1624" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1624" s="30"/>
+      <c r="C1624" s="31"/>
+      <c r="D1624" s="31"/>
+      <c r="F1624" s="32"/>
+      <c r="G1624" s="33"/>
+      <c r="H1624" s="33"/>
+      <c r="I1624" s="34"/>
+    </row>
+    <row r="1625" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1625" s="30"/>
+      <c r="C1625" s="31"/>
+      <c r="D1625" s="31"/>
+      <c r="F1625" s="32"/>
+      <c r="G1625" s="33"/>
+      <c r="H1625" s="33"/>
+      <c r="I1625" s="34"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:I101" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:I103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="F3:I3"/>
